--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="9FA38EB7657909084512CD5221982CE03D3EB261" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="9FA38EB7657909084512CD5221982CE03D3EB261" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{86AF6C58-D8DB-47C8-A6A3-6098C88271BE}"/>
   <bookViews>
     <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,9 +333,6 @@
     <t>O&amp;M_Cost_Equation</t>
   </si>
   <si>
-    <t>Estimated_Footprint_(ft2)</t>
-  </si>
-  <si>
     <t>Feas - 1</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>Is Facility clear of existing structural BMPs</t>
+  </si>
+  <si>
+    <t>BMP_SIZE</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1815,7 @@
   <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1966,7 +1966,7 @@
         <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -2002,70 +2002,70 @@
         <v>55</v>
       </c>
       <c r="S2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" t="s">
         <v>99</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>100</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>101</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>102</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>103</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>105</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>108</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>109</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>110</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>112</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>114</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>115</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>116</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>117</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>118</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>119</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -4524,7 +4524,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>15</v>
@@ -4535,7 +4535,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -4546,7 +4546,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -4557,7 +4557,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -4568,7 +4568,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -4579,7 +4579,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -4590,7 +4590,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -4601,7 +4601,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -4612,7 +4612,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -4623,7 +4623,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -4634,7 +4634,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -4645,7 +4645,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -4656,7 +4656,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -4667,7 +4667,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -4678,7 +4678,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -4689,7 +4689,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>42</v>
@@ -4700,7 +4700,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -4711,7 +4711,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -4722,7 +4722,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -4733,7 +4733,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -4744,7 +4744,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -4755,7 +4755,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -5112,7 +5112,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>15</v>
@@ -5123,7 +5123,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>15</v>
@@ -5134,7 +5134,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -5145,7 +5145,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -5156,7 +5156,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -5167,7 +5167,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -5178,7 +5178,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -5189,7 +5189,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -5200,7 +5200,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -5211,7 +5211,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -5222,7 +5222,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -5233,7 +5233,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -5244,7 +5244,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -5255,7 +5255,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -5266,7 +5266,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -5277,7 +5277,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -5288,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>43</v>
@@ -5299,7 +5299,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -5310,7 +5310,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -5321,7 +5321,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -5332,7 +5332,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -5343,7 +5343,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -5703,7 +5703,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -5714,7 +5714,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -5725,10 +5725,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5736,10 +5736,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5747,7 +5747,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -5758,7 +5758,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -5769,7 +5769,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -5780,7 +5780,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -5791,7 +5791,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -5802,7 +5802,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -5813,7 +5813,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -5824,7 +5824,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -5835,7 +5835,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>36</v>
@@ -5846,7 +5846,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -5857,7 +5857,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -5868,7 +5868,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -5879,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -5890,7 +5890,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -5901,7 +5901,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -5912,7 +5912,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -5923,10 +5923,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5934,7 +5934,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -6294,7 +6294,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -6305,7 +6305,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>18</v>
@@ -6316,7 +6316,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -6338,7 +6338,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>30</v>
@@ -6349,7 +6349,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>31</v>
@@ -6360,7 +6360,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -6371,7 +6371,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -6382,7 +6382,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -6393,7 +6393,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -6404,7 +6404,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -6415,7 +6415,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -6426,7 +6426,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -6437,7 +6437,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>45</v>
@@ -6448,7 +6448,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -6459,7 +6459,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -6470,7 +6470,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -6481,7 +6481,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -6492,7 +6492,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -6503,7 +6503,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>91</v>
@@ -6514,7 +6514,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -6525,7 +6525,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -6860,7 +6860,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -6871,7 +6871,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -6882,10 +6882,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -6893,10 +6893,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -6904,7 +6904,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -6915,7 +6915,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -6926,7 +6926,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -6937,7 +6937,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -6948,7 +6948,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -6959,7 +6959,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -6970,7 +6970,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -6981,7 +6981,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -6992,7 +6992,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>36</v>
@@ -7003,7 +7003,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -7014,7 +7014,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -7025,7 +7025,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -7036,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -7058,7 +7058,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -7069,7 +7069,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -7080,7 +7080,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -7091,7 +7091,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -7142,27 +7142,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -7177,7 +7177,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -7187,7 +7187,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -7222,12 +7222,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -7237,7 +7237,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -7576,7 +7576,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -7588,7 +7588,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -7600,10 +7600,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="14"/>
     </row>
@@ -7612,10 +7612,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="14"/>
     </row>
@@ -7624,7 +7624,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -7636,7 +7636,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -7648,7 +7648,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -7660,7 +7660,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -7672,7 +7672,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -7684,7 +7684,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -7696,7 +7696,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -7708,7 +7708,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -7720,7 +7720,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>36</v>
@@ -7732,7 +7732,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -7744,7 +7744,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -7756,7 +7756,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -7778,7 +7778,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -7789,7 +7789,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -7800,7 +7800,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -7811,7 +7811,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -7822,7 +7822,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -8170,7 +8170,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -8182,7 +8182,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -8194,10 +8194,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="13"/>
     </row>
@@ -8206,10 +8206,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -8218,7 +8218,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -8230,7 +8230,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -8242,7 +8242,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -8254,7 +8254,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -8266,7 +8266,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -8278,7 +8278,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -8290,7 +8290,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -8302,7 +8302,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -8314,7 +8314,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>36</v>
@@ -8326,7 +8326,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -8338,7 +8338,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -8350,7 +8350,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -8361,7 +8361,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -8372,7 +8372,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -8383,7 +8383,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -8394,7 +8394,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -8405,7 +8405,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -8416,7 +8416,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -8770,7 +8770,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -8782,7 +8782,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -8794,10 +8794,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="13"/>
     </row>
@@ -8806,10 +8806,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -8818,7 +8818,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -8830,7 +8830,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -8842,7 +8842,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -8854,7 +8854,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -8866,7 +8866,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -8878,7 +8878,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -8890,7 +8890,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -8902,7 +8902,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -8914,7 +8914,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>36</v>
@@ -8926,7 +8926,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -8938,7 +8938,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -8950,7 +8950,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -8961,7 +8961,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -8972,7 +8972,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -8983,7 +8983,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -8994,7 +8994,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -9005,7 +9005,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -9016,7 +9016,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -9370,7 +9370,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -9381,7 +9381,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -9392,7 +9392,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -9403,7 +9403,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -9414,7 +9414,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -9425,7 +9425,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -9436,7 +9436,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -9447,7 +9447,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -9458,10 +9458,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9469,7 +9469,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>34</v>
@@ -9480,7 +9480,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -9491,7 +9491,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -9502,7 +9502,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>36</v>
@@ -9513,7 +9513,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -9524,7 +9524,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>37</v>
@@ -9535,7 +9535,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -9546,7 +9546,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -9557,7 +9557,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -9568,7 +9568,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -9579,7 +9579,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -9590,7 +9590,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -9601,7 +9601,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -9962,7 +9962,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -9973,10 +9973,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -9984,7 +9984,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -9995,7 +9995,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -10006,10 +10006,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -10017,10 +10017,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10028,7 +10028,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -10039,7 +10039,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -10050,7 +10050,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -10061,7 +10061,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -10072,10 +10072,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10083,7 +10083,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -10094,7 +10094,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -10105,7 +10105,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>45</v>
@@ -10116,7 +10116,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -10127,7 +10127,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -10138,7 +10138,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -10149,7 +10149,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -10160,10 +10160,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10171,7 +10171,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>91</v>
@@ -10182,7 +10182,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -10193,7 +10193,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -10544,7 +10544,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -10555,7 +10555,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -10566,7 +10566,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -10577,7 +10577,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -10588,7 +10588,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -10599,7 +10599,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -10610,7 +10610,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>32</v>
@@ -10621,7 +10621,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -10632,7 +10632,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -10643,7 +10643,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -10654,7 +10654,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -10665,7 +10665,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -10676,7 +10676,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -10687,7 +10687,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -10698,7 +10698,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -10709,7 +10709,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -10720,7 +10720,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -10731,7 +10731,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -10742,7 +10742,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -10753,7 +10753,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -10764,7 +10764,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -10775,7 +10775,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -11135,7 +11135,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -11146,7 +11146,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -11157,10 +11157,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -11168,10 +11168,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -11179,7 +11179,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -11190,7 +11190,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -11201,7 +11201,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -11212,7 +11212,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -11223,7 +11223,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -11234,7 +11234,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -11245,7 +11245,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -11256,7 +11256,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -11267,7 +11267,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>36</v>
@@ -11278,7 +11278,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -11289,7 +11289,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -11300,7 +11300,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -11311,7 +11311,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -11322,7 +11322,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -11333,7 +11333,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -11344,7 +11344,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -11355,7 +11355,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -11366,7 +11366,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -11726,7 +11726,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -11737,7 +11737,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -11748,7 +11748,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -11759,7 +11759,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -11770,7 +11770,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -11781,7 +11781,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -11792,7 +11792,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -11803,7 +11803,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -11814,10 +11814,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -11825,7 +11825,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>34</v>
@@ -11836,7 +11836,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -11847,7 +11847,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -11858,7 +11858,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>36</v>
@@ -11869,7 +11869,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -11880,7 +11880,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>37</v>
@@ -11891,7 +11891,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -11902,7 +11902,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -11913,7 +11913,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -11924,7 +11924,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -11935,7 +11935,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -11946,7 +11946,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -11957,7 +11957,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2015\1567009.01 - CCH NPDES Effluent Limit Planning\16-1.B&amp;C Str BMP Prioritization\Structural BMPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="9FA38EB7657909084512CD5221982CE03D3EB261" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{86AF6C58-D8DB-47C8-A6A3-6098C88271BE}"/>
   <bookViews>
     <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="134">
   <si>
     <t>Hydrodynamic Separation</t>
   </si>
@@ -120,9 +119,6 @@
     <t>O&amp;M Cost Equation ($)</t>
   </si>
   <si>
-    <t>Estimated Footprint (ft^2)</t>
-  </si>
-  <si>
     <t>Note: Stormwater Detention Volume</t>
   </si>
   <si>
@@ -429,7 +425,19 @@
     <t>Is Facility clear of existing structural BMPs</t>
   </si>
   <si>
-    <t>BMP_SIZE</t>
+    <t>BMP_SIZE_Unit</t>
+  </si>
+  <si>
+    <t>footprint area for bmp</t>
+  </si>
+  <si>
+    <t>Drainage_Area_Acres</t>
+  </si>
+  <si>
+    <t>BMP_SIZE_Equation (ft^2)</t>
+  </si>
+  <si>
+    <t>BMP_SIZE_Equation</t>
   </si>
 </sst>
 </file>
@@ -1812,25 +1820,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7E98C2-0016-4A4B-9FFE-BD3B62F27FF1}">
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="31" max="31" width="14.44140625" customWidth="1"/>
-    <col min="39" max="39" width="11.109375" customWidth="1"/>
-    <col min="40" max="40" width="10.88671875" customWidth="1"/>
+    <col min="5" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="32" max="32" width="14.44140625" customWidth="1"/>
+    <col min="40" max="40" width="11.109375" customWidth="1"/>
+    <col min="41" max="41" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>4</v>
       </c>
@@ -1847,228 +1856,234 @@
         <v>8</v>
       </c>
       <c r="H1">
+        <v>9</v>
+      </c>
+      <c r="I1">
         <v>12</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>13</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>14</v>
       </c>
-      <c r="K1">
-        <v>15</v>
-      </c>
       <c r="L1">
+        <v>15</v>
+      </c>
+      <c r="M1">
         <v>16</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>17</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>18</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>19</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>20</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>21</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>22</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>25</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>26</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>27</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>28</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>29</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>30</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>31</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>32</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>33</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>34</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>35</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>36</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>37</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>38</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>39</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>40</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>41</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>42</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>43</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>44</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>45</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>99</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>100</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>101</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>102</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>103</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>104</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>105</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>108</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>110</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>111</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>114</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>115</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>116</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>117</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>118</v>
       </c>
-      <c r="AN2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2081,49 +2096,49 @@
         <v>WQFR</v>
       </c>
       <c r="D3" s="23" t="str">
-        <f t="shared" ref="D3:AN9" ca="1" si="0">VLOOKUP(D$1,INDIRECT("'BMP"&amp;$A3&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
+        <f t="shared" ref="D3:AO9" ca="1" si="0">VLOOKUP(D$1,INDIRECT("'BMP"&amp;$A3&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>WQFR</v>
       </c>
       <c r="E3" s="23" t="str">
+        <f t="shared" ref="E3:E9" ca="1" si="1">VLOOKUP(E$1,INDIRECT("'BMP"&amp;$A3&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F3" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>37800 + 29617*WQFR</v>
       </c>
-      <c r="F3" s="23" t="str">
+      <c r="G3" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>1200*WQFR</v>
       </c>
-      <c r="G3" s="23">
+      <c r="H3" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
-      <c r="H3" s="23">
+      <c r="I3" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="I3" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J3" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="K3" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L3" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="M3" s="23">
+      <c r="N3" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="N3" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O3" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -2140,26 +2155,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="S3" s="23" t="str">
+      <c r="S3" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have downstream stormdrain collection system?</v>
       </c>
-      <c r="T3" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="U3" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="V3" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
       </c>
-      <c r="V3" s="23" t="str">
+      <c r="W3" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
       </c>
-      <c r="W3" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="X3" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -2190,12 +2205,12 @@
       </c>
       <c r="AE3" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF3" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility potentially have space to install?</v>
       </c>
-      <c r="AF3" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AG3" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -2228,17 +2243,21 @@
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="AO3" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f t="shared" ref="B4:B15" ca="1" si="1">INDIRECT("'BMP"&amp;$A4&amp;"'!"&amp;"C2")</f>
+        <f t="shared" ref="B4:B15" ca="1" si="2">INDIRECT("'BMP"&amp;$A4&amp;"'!"&amp;"C2")</f>
         <v>Enhanced Media Filtration (Replaceable Cartridge)</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f t="shared" ref="C4:R15" ca="1" si="2">VLOOKUP(C$1,INDIRECT("'BMP"&amp;$A4&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
+        <f t="shared" ref="C4:S15" ca="1" si="3">VLOOKUP(C$1,INDIRECT("'BMP"&amp;$A4&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>WQFR</v>
       </c>
       <c r="D4" s="23" t="str">
@@ -2246,53 +2265,53 @@
         <v>WQFR</v>
       </c>
       <c r="E4" s="23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>WQFR</v>
+      </c>
+      <c r="F4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>146363 + 179404*WQFR</v>
       </c>
-      <c r="F4" s="23" t="str">
+      <c r="G4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>1400*WQFR</v>
       </c>
-      <c r="G4" s="23" t="str">
+      <c r="H4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>50.766*WQFR - 2.0719</v>
       </c>
-      <c r="H4" s="23">
+      <c r="I4" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="I4" s="23">
+      <c r="J4" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="J4" s="23">
+      <c r="K4" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K4" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L4" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M4" s="23">
+      <c r="N4" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.61</v>
       </c>
-      <c r="N4" s="23">
+      <c r="O4" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O4" s="23">
+      <c r="P4" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.59</v>
       </c>
-      <c r="P4" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q4" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -2301,26 +2320,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="23" t="str">
+      <c r="S4" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have downstream stormdrain collection system?</v>
       </c>
-      <c r="T4" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="U4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="V4" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
       </c>
-      <c r="V4" s="23" t="str">
+      <c r="W4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
       </c>
-      <c r="W4" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="X4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -2351,12 +2370,12 @@
       </c>
       <c r="AE4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF4" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility potentially have space to install?</v>
       </c>
-      <c r="AF4" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AG4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -2389,71 +2408,75 @@
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="AO4" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Biofiltration (Vault)</v>
+      </c>
+      <c r="C5" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WQFR</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>WQFR</v>
+      </c>
+      <c r="E5" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Biofiltration (Vault)</v>
-      </c>
-      <c r="C5" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v>WQFR</v>
       </c>
-      <c r="D5" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>WQFR</v>
-      </c>
-      <c r="E5" s="23" t="str">
+      <c r="F5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>21712 + 314757*WQFR</v>
       </c>
-      <c r="F5" s="23" t="str">
+      <c r="G5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>1200*WQFR</v>
       </c>
-      <c r="G5" s="23" t="str">
+      <c r="H5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>250.75*WQFR + 13.75</v>
       </c>
-      <c r="H5" s="23">
+      <c r="I5" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="I5" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J5" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="K5" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L5" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="M5" s="23">
+      <c r="N5" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="N5" s="23">
+      <c r="O5" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="O5" s="23">
+      <c r="P5" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="P5" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q5" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -2462,26 +2485,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="S5" s="23" t="str">
+      <c r="S5" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have downstream stormdrain collection system?</v>
       </c>
-      <c r="T5" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="U5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="V5" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
       </c>
-      <c r="V5" s="23" t="str">
+      <c r="W5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
       </c>
-      <c r="W5" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="X5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -2512,12 +2535,12 @@
       </c>
       <c r="AE5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF5" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility potentially have space to install?</v>
       </c>
-      <c r="AF5" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AG5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -2550,63 +2573,67 @@
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="AO5" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Media Filtration (Pressure)</v>
+      </c>
+      <c r="C6" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WQFR</v>
+      </c>
+      <c r="D6" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>WQFR</v>
+      </c>
+      <c r="E6" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Media Filtration (Pressure)</v>
-      </c>
-      <c r="C6" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v>WQFR</v>
       </c>
-      <c r="D6" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>WQFR</v>
-      </c>
-      <c r="E6" s="23" t="str">
+      <c r="F6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>46435+ 360661*WQFR</v>
       </c>
-      <c r="F6" s="23" t="str">
+      <c r="G6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>1400*WQFR</v>
       </c>
-      <c r="G6" s="23" t="str">
+      <c r="H6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>586.06*WQFR - 41.868</v>
       </c>
-      <c r="H6" s="23">
+      <c r="I6" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="I6" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J6" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="K6" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L6" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.86</v>
       </c>
-      <c r="M6" s="23">
+      <c r="N6" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="N6" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O6" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -2623,9 +2650,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
+      <c r="S6" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="T6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2657,36 +2684,36 @@
       </c>
       <c r="AA6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AB6" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Is there high likelihood of 3-phase power at the Facility?</v>
       </c>
-      <c r="AB6" s="23" t="str">
+      <c r="AC6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have a downstream sewer collection system?</v>
       </c>
-      <c r="AC6" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AD6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
       <c r="AE6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF6" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility potentially have space to install?</v>
       </c>
-      <c r="AF6" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AG6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AH6" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Is there sufficient space for stormwater detention?</v>
       </c>
-      <c r="AH6" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AI6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -2711,107 +2738,111 @@
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="AO6" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Bioinfiltration / Bioretention</v>
+      </c>
+      <c r="C7" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WQV</v>
+      </c>
+      <c r="D7" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Estimated Footprint / 43560</v>
+      </c>
+      <c r="E7" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bioinfiltration / Bioretention</v>
-      </c>
-      <c r="C7" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>WQV</v>
-      </c>
-      <c r="D7" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Estimated Footprint / 43560</v>
-      </c>
-      <c r="E7" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>14*WQV + 47600</v>
       </c>
-      <c r="F7" s="23" t="str">
+      <c r="G7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>1600*Estimated Footprint / 43560</v>
       </c>
-      <c r="G7" s="23">
+      <c r="H7" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>1000</v>
       </c>
-      <c r="H7" s="23">
+      <c r="I7" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="I7" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J7" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K7" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L7" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.46</v>
       </c>
-      <c r="M7" s="23">
+      <c r="N7" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="N7" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O7" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P7" s="23">
+      <c r="Q7" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="Q7" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="R7" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="23" t="str">
+      <c r="S7" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have downstream stormdrain collection system?</v>
       </c>
-      <c r="T7" s="23" t="str">
+      <c r="U7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have medium or low risk of groundwater (high groundwater makes bmp infeasible)?</v>
       </c>
-      <c r="U7" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="V7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
       <c r="W7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="X7" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility have soils other than rock soils, which would make the BMP infeasible?</v>
       </c>
-      <c r="X7" s="23" t="str">
+      <c r="Y7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have soils other than clay soils, which would make the BMP infeasible?</v>
       </c>
-      <c r="Y7" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="Z7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -2826,24 +2857,24 @@
       </c>
       <c r="AC7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AD7" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility have slopes less than 8%?</v>
       </c>
-      <c r="AD7" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AE7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
       <c r="AF7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AG7" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility have more unpaved space (SF) than the required BMP size?</v>
       </c>
-      <c r="AG7" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AH7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -2858,65 +2889,69 @@
       </c>
       <c r="AK7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AL7" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Is the Facility outside of a closed or Active Landfill?</v>
       </c>
-      <c r="AL7" s="23" t="str">
+      <c r="AM7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Is runoff type appropriate for sheet-flow treatment</v>
       </c>
-      <c r="AM7" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AN7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="AO7" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inlet Insert Unit</v>
+      </c>
+      <c r="C8" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Num_Of_CBs</v>
+      </c>
+      <c r="D8" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Num_Of_CBs</v>
+      </c>
+      <c r="E8" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Inlet Insert Unit</v>
-      </c>
-      <c r="C8" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Num_Of_CBs</v>
-      </c>
-      <c r="D8" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Num_Of_CBs</v>
-      </c>
-      <c r="E8" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>2500*Num_Of_CBs</v>
       </c>
-      <c r="F8" s="23" t="str">
+      <c r="G8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>2700*Num_Of_CBs</v>
       </c>
-      <c r="G8" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
-      <c r="H8" s="23">
+      <c r="H8" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="I8" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="I8" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J8" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="K8" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L8" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -2945,9 +2980,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
+      <c r="S8" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="T8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2971,12 +3006,12 @@
       </c>
       <c r="Y8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="Z8" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility have existing catch basins?</v>
       </c>
-      <c r="Z8" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AA8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -3033,71 +3068,75 @@
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="AO8" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Sand Filtration</v>
+      </c>
+      <c r="C9" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WQV</v>
+      </c>
+      <c r="D9" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>WQV</v>
+      </c>
+      <c r="E9" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Sand Filtration</v>
-      </c>
-      <c r="C9" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v>WQV</v>
       </c>
-      <c r="D9" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>WQV</v>
-      </c>
-      <c r="E9" s="23" t="str">
+      <c r="F9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>84*WQV + 60200</v>
       </c>
-      <c r="F9" s="23" t="str">
+      <c r="G9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3*WQV</v>
       </c>
-      <c r="G9" s="23" t="str">
+      <c r="H9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>WQV / 6</v>
       </c>
-      <c r="H9" s="23">
+      <c r="I9" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="I9" s="23">
+      <c r="J9" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.78</v>
       </c>
-      <c r="J9" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="K9" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="L9" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="M9" s="23">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
+        <f t="shared" ca="1" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="N9" s="23">
+      <c r="O9" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="O9" s="23">
+      <c r="P9" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="P9" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q9" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -3106,26 +3145,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="23" t="str">
+      <c r="S9" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have downstream stormdrain collection system?</v>
       </c>
-      <c r="T9" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="U9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="V9" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
       </c>
-      <c r="V9" s="23" t="str">
+      <c r="W9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
       </c>
-      <c r="W9" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="X9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -3156,12 +3195,12 @@
       </c>
       <c r="AE9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF9" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Does Facility potentially have space to install?</v>
       </c>
-      <c r="AF9" s="23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N/A</v>
-      </c>
       <c r="AG9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
@@ -3179,639 +3218,655 @@
         <v>N/A</v>
       </c>
       <c r="AK9" s="23" t="str">
-        <f t="shared" ref="AK9:AN9" ca="1" si="3">VLOOKUP(AK$1,INDIRECT("'BMP"&amp;$A9&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>N/A</v>
       </c>
       <c r="AL9" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="AL9:AO9" ca="1" si="4">VLOOKUP(AL$1,INDIRECT("'BMP"&amp;$A9&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>N/A</v>
       </c>
       <c r="AM9" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>N/A</v>
       </c>
       <c r="AN9" s="23" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" ht="115.2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AO9" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Coagulation Enhanced Treatment</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>WQFR</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>WQFR</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>WQFR</v>
+      </c>
+      <c r="F10" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>155181+ 57851*WQFR</v>
       </c>
-      <c r="F10" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G10" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>1400*WQFR</v>
       </c>
-      <c r="G10" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H10" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>586.06*WQFR - 41.868</v>
       </c>
-      <c r="H10" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I10" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.95</v>
       </c>
-      <c r="I10" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J10" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.93</v>
       </c>
-      <c r="K10" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L10" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.95</v>
       </c>
-      <c r="M10" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="N10" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.51</v>
       </c>
-      <c r="N10" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="O10" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P10" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R10" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="23" t="str">
-        <f t="shared" ref="S10:AH15" ca="1" si="4">VLOOKUP(S$1,INDIRECT("'BMP"&amp;$A10&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
-        <v>N/A</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="T10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="T10:AI15" ca="1" si="5">VLOOKUP(T$1,INDIRECT("'BMP"&amp;$A10&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>N/A</v>
       </c>
       <c r="U10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="V10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="W10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="X10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Y10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Z10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AA10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="AB10" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Is there high likelihood of 3-phase power at the Facility?</v>
       </c>
-      <c r="AB10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AC10" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have a downstream sewer collection system?</v>
       </c>
-      <c r="AC10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="AD10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AE10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF10" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility potentially have space to install?</v>
       </c>
-      <c r="AF10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="AG10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="AH10" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Is there sufficient space for stormwater detention?</v>
       </c>
-      <c r="AH10" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="AI10" s="23" t="str">
-        <f t="shared" ref="AI10:AN15" ca="1" si="5">VLOOKUP(AI$1,INDIRECT("'BMP"&amp;$A10&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AJ10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="AJ10:AO15" ca="1" si="6">VLOOKUP(AJ$1,INDIRECT("'BMP"&amp;$A10&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>N/A</v>
       </c>
       <c r="AK10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AL10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AM10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AN10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" ht="129.6" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+      <c r="AO10" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Roofing</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>Estimated Footprint</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>N/A</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>Area_EM_SF</v>
+      </c>
+      <c r="F11" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>220*Estimated Footprint</v>
       </c>
-      <c r="F11" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>N/A</v>
-      </c>
       <c r="G11" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="H11" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Area_EM_SF</v>
       </c>
-      <c r="H11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="I11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="J11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="J11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="K11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="K11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="M11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="M11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="N11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="N11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="O11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="O11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="P11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="P11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="R11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="R11" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="S11" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="S11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="T11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="U11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="V11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="W11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="X11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Y11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Z11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AA11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AB11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AC11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AD11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AE11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AF11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AG11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AH11" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Does Facility have Area of Exposed Materials &gt; 0 square feet?</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
       </c>
       <c r="AI11" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
+        <v>Does Facility have Area of Exposed Materials &gt; 0 square feet?</v>
       </c>
       <c r="AJ11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AK11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AL11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AM11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AN11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="129.6" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+      <c r="AO11" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Paving and Curbing</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>Estimated Footprint</v>
       </c>
       <c r="D12" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>N/A</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>Paving_Disrepair_SF</v>
+      </c>
+      <c r="F12" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>3*Estimated Footprint</v>
       </c>
-      <c r="F12" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>N/A</v>
-      </c>
       <c r="G12" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="H12" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Paving_Disrepair_SF</v>
       </c>
-      <c r="H12" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I12" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="I12" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J12" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L12" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="N12" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q12" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R12" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="T12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="U12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="V12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="W12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="X12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Y12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Z12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AA12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AB12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AC12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AD12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AE12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AF12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AG12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AH12" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AI12" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="AJ12" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>Does Facility have Area of Damaged Pavement &gt; 0 square feet?</v>
       </c>
-      <c r="AJ12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
       <c r="AK12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AL12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AM12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AN12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" ht="201.6" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+      <c r="AO12" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Oil and Water Separators</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>WQFR</v>
       </c>
       <c r="D13" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>WQFR</v>
       </c>
       <c r="E13" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>WQFR</v>
+      </c>
+      <c r="F13" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>67242 + 36094*WQFR</v>
       </c>
-      <c r="F13" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G13" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>1400*WQFR</v>
       </c>
-      <c r="G13" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H13" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>57.578*WQFR + 14.586</v>
       </c>
-      <c r="H13" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I13" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.47</v>
       </c>
-      <c r="I13" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J13" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="K13" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L13" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="N13" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P13" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R13" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have downstream stormdrain collection system?</v>
       </c>
-      <c r="T13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="U13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="V13" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
       </c>
-      <c r="V13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="W13" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
       </c>
-      <c r="W13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="X13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Y13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Z13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AA13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AB13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AC13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AD13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AE13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF13" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility potentially have space to install?</v>
       </c>
-      <c r="AF13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="AG13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AH13" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AI13" s="23" t="str">
@@ -3819,160 +3874,164 @@
         <v>N/A</v>
       </c>
       <c r="AJ13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AK13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AL13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AM13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+      <c r="AN13" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>Is Facility clear of existing structural BMPs</v>
       </c>
-      <c r="AN13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="AO13" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Vegetative Swales</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>WQV</v>
       </c>
       <c r="D14" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>Estimated Footprint / 43560</v>
       </c>
       <c r="E14" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>Drainage_Area_Acres</v>
+      </c>
+      <c r="F14" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>11000+170*WQV</v>
       </c>
-      <c r="F14" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G14" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>1600*Estimated footprint / 43560</v>
       </c>
-      <c r="G14" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H14" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>500*Drainage_Area_Acres</v>
       </c>
-      <c r="H14" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I14" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.83</v>
       </c>
-      <c r="I14" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J14" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="K14" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L14" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.46</v>
       </c>
-      <c r="M14" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="N14" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.63</v>
       </c>
-      <c r="N14" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="O14" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P14" s="23">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q14" s="23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.39</v>
       </c>
-      <c r="Q14" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="R14" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have downstream stormdrain collection system?</v>
       </c>
-      <c r="T14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="U14" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have high groundwater, which would make BMP infeasible?</v>
       </c>
-      <c r="U14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="V14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="W14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="X14" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have rock soils, which would make the BMP infeasible?</v>
       </c>
-      <c r="X14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="Y14" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have clay soils, which would make the BMP infeasible?</v>
       </c>
-      <c r="Y14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="Z14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AA14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AB14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AC14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AD14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AE14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AF14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="AG14" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have more unpaved space (SF) than the required BMP size?</v>
       </c>
-      <c r="AG14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="AH14" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AI14" s="23" t="str">
@@ -3980,160 +4039,164 @@
         <v>N/A</v>
       </c>
       <c r="AJ14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AK14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AL14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+      <c r="AM14" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>Is runoff type appropriate for sheet-flow treatment</v>
       </c>
-      <c r="AM14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
       <c r="AN14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" ht="201.6" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+      <c r="AO14" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Detention</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>WQV</v>
       </c>
       <c r="D15" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>WQV</v>
       </c>
       <c r="E15" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>WQV</v>
+      </c>
+      <c r="F15" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>56*WQV + 37800</v>
       </c>
-      <c r="F15" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>N/A</v>
-      </c>
       <c r="G15" s="23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="H15" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>WQV / 6</v>
       </c>
-      <c r="H15" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="I15" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L15" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R15" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="T15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="U15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="V15" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
       </c>
-      <c r="V15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="W15" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
       </c>
-      <c r="W15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="X15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Y15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="Z15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AA15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AB15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AC15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AD15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AE15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF15" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Does Facility potentially have space to install?</v>
       </c>
-      <c r="AF15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
-      </c>
       <c r="AG15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AH15" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
       <c r="AI15" s="23" t="str">
@@ -4141,27 +4204,31 @@
         <v>N/A</v>
       </c>
       <c r="AJ15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AK15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AL15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AM15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
       <c r="AN15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+      <c r="AO15" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -4200,6 +4267,7 @@
       <c r="AL16" s="21"/>
       <c r="AM16" s="21"/>
       <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4214,7 +4282,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4256,10 +4324,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4267,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -4278,10 +4346,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4289,10 +4357,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4300,16 +4368,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -4367,7 +4444,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5">
         <f>'[1]Table 2 - Selected BMP'!$I$10</f>
@@ -4383,7 +4460,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="5">
         <f>'[1]Table 2 - Selected BMP'!$O$10</f>
@@ -4399,7 +4476,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5">
         <f>'[1]Table 2 - Selected BMP'!$R$10</f>
@@ -4415,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5">
         <f>'[1]Table 2 - Selected BMP'!$U$10</f>
@@ -4463,7 +4540,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5">
         <f>'[1]Table 2 - Selected BMP'!$AD$10</f>
@@ -4479,7 +4556,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5">
         <f>'[1]Table 2 - Selected BMP'!$AG$10</f>
@@ -4495,7 +4572,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5">
         <f>'[1]Table 2 - Selected BMP'!$AJ$10</f>
@@ -4524,7 +4601,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>15</v>
@@ -4535,7 +4612,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -4546,7 +4623,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -4557,7 +4634,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -4568,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -4579,7 +4656,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -4590,7 +4667,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -4601,7 +4678,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -4612,7 +4689,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -4623,7 +4700,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -4634,7 +4711,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -4645,7 +4722,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -4656,7 +4733,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -4667,7 +4744,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -4678,7 +4755,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -4689,10 +4766,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4700,7 +4777,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -4711,7 +4788,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -4722,7 +4799,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -4733,7 +4810,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -4744,7 +4821,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -4755,7 +4832,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -4799,7 +4876,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4841,13 +4918,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4855,7 +4932,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -4866,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4877,10 +4954,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4888,16 +4965,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -4955,7 +5041,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$11</f>
@@ -4971,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$11</f>
@@ -4987,7 +5073,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$11</f>
@@ -5003,7 +5089,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$11</f>
@@ -5051,7 +5137,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$11</f>
@@ -5067,7 +5153,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$11</f>
@@ -5083,7 +5169,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$11</f>
@@ -5112,7 +5198,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>15</v>
@@ -5123,7 +5209,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>15</v>
@@ -5134,7 +5220,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -5145,7 +5231,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -5156,7 +5242,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -5167,7 +5253,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -5178,7 +5264,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -5189,7 +5275,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -5200,7 +5286,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -5211,7 +5297,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -5222,7 +5308,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -5233,7 +5319,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -5244,7 +5330,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -5255,7 +5341,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -5266,7 +5352,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -5277,7 +5363,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -5288,10 +5374,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5299,7 +5385,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -5310,7 +5396,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -5321,7 +5407,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -5332,7 +5418,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -5343,7 +5429,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -5387,7 +5473,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5429,13 +5515,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5443,13 +5529,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5457,10 +5543,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>77</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -5468,10 +5554,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -5479,16 +5565,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -5546,7 +5641,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5">
         <f>'[1]Table 2 - Selected BMP'!$I$12</f>
@@ -5562,7 +5657,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="18">
         <f>'[1]Table 2 - Selected BMP'!$O$12</f>
@@ -5578,7 +5673,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="18">
         <f>'[1]Table 2 - Selected BMP'!$R$12</f>
@@ -5594,7 +5689,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="18">
         <f>'[1]Table 2 - Selected BMP'!$U$12</f>
@@ -5642,7 +5737,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="18">
         <f>'[1]Table 2 - Selected BMP'!$AD$12</f>
@@ -5658,7 +5753,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="18">
         <f>'[1]Table 2 - Selected BMP'!$AG$12</f>
@@ -5674,7 +5769,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="18">
         <f>'[1]Table 2 - Selected BMP'!$AJ$12</f>
@@ -5703,7 +5798,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -5714,7 +5809,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -5725,10 +5820,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5736,10 +5831,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5747,7 +5842,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -5758,7 +5853,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -5769,7 +5864,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -5780,7 +5875,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -5791,7 +5886,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -5802,7 +5897,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -5813,7 +5908,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -5824,7 +5919,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -5835,10 +5930,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -5846,7 +5941,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -5857,7 +5952,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -5868,7 +5963,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -5879,7 +5974,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -5890,7 +5985,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -5901,7 +5996,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -5912,7 +6007,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -5923,10 +6018,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5934,7 +6029,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -5972,7 +6067,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6014,16 +6109,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -6031,13 +6126,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6045,10 +6140,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6056,13 +6151,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6070,16 +6165,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -6137,7 +6241,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$13</f>
@@ -6153,7 +6257,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$13</f>
@@ -6169,7 +6273,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$13</f>
@@ -6185,7 +6289,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$13</f>
@@ -6233,7 +6337,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$13</f>
@@ -6249,7 +6353,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$13</f>
@@ -6265,7 +6369,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$13</f>
@@ -6294,7 +6398,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -6305,7 +6409,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>18</v>
@@ -6316,7 +6420,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -6327,7 +6431,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -6338,10 +6442,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -6349,10 +6453,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -6360,7 +6464,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -6371,7 +6475,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -6382,7 +6486,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -6393,7 +6497,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -6404,7 +6508,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -6415,7 +6519,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -6426,7 +6530,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -6437,10 +6541,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -6448,7 +6552,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -6459,7 +6563,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -6470,7 +6574,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -6481,7 +6585,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -6492,7 +6596,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -6503,10 +6607,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -6514,7 +6618,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -6525,7 +6629,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -6562,8 +6666,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6592,7 +6696,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6605,13 +6709,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6619,13 +6723,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6633,10 +6737,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6644,10 +6748,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6655,19 +6759,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -6721,7 +6834,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -6735,7 +6848,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -6749,7 +6862,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -6763,7 +6876,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -6805,7 +6918,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -6819,7 +6932,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -6833,7 +6946,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -6860,7 +6973,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -6871,7 +6984,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -6882,10 +6995,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -6893,10 +7006,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -6904,7 +7017,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -6915,7 +7028,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -6926,7 +7039,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -6937,7 +7050,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -6948,7 +7061,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -6959,7 +7072,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -6970,7 +7083,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -6981,7 +7094,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -6992,10 +7105,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -7003,7 +7116,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -7014,7 +7127,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -7025,7 +7138,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -7036,7 +7149,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -7047,7 +7160,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -7058,7 +7171,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -7069,7 +7182,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -7080,7 +7193,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -7091,7 +7204,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -7142,102 +7255,102 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -7258,7 +7371,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7300,13 +7413,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7314,13 +7427,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7328,10 +7441,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7339,10 +7452,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7350,17 +7463,26 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="15">
-        <f>ROUND(3.14*(4^2),0)</f>
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="15">
+        <f>ROUND(3.14*(4^2),0)</f>
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -7418,7 +7540,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$2</f>
@@ -7434,7 +7556,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$2</f>
@@ -7450,7 +7572,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$2</f>
@@ -7466,7 +7588,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$2</f>
@@ -7514,7 +7636,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$2</f>
@@ -7530,7 +7652,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$2</f>
@@ -7546,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$2</f>
@@ -7576,7 +7698,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -7588,7 +7710,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -7600,10 +7722,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="14"/>
     </row>
@@ -7612,10 +7734,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="14"/>
     </row>
@@ -7624,7 +7746,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -7636,7 +7758,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -7648,7 +7770,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -7660,7 +7782,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -7672,7 +7794,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -7684,7 +7806,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -7696,7 +7818,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -7708,7 +7830,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -7720,10 +7842,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="14"/>
     </row>
@@ -7732,7 +7854,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -7744,7 +7866,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -7756,7 +7878,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -7767,7 +7889,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -7778,7 +7900,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -7789,7 +7911,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -7800,7 +7922,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -7811,7 +7933,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -7822,7 +7944,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -7853,8 +7975,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7896,13 +8018,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7910,13 +8032,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7924,10 +8046,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7935,10 +8057,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7946,16 +8068,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -8013,7 +8144,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$3</f>
@@ -8029,7 +8160,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$3</f>
@@ -8045,7 +8176,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$3</f>
@@ -8061,7 +8192,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$3</f>
@@ -8109,7 +8240,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$3</f>
@@ -8125,7 +8256,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$3</f>
@@ -8141,7 +8272,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$3</f>
@@ -8170,7 +8301,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -8182,7 +8313,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -8194,10 +8325,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="13"/>
     </row>
@@ -8206,10 +8337,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -8218,7 +8349,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -8230,7 +8361,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -8242,7 +8373,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -8254,7 +8385,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -8266,7 +8397,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -8278,7 +8409,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -8290,7 +8421,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -8302,7 +8433,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -8314,10 +8445,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="13"/>
     </row>
@@ -8326,7 +8457,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -8338,7 +8469,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -8350,7 +8481,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -8361,7 +8492,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -8372,7 +8503,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -8383,7 +8514,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -8394,7 +8525,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -8405,7 +8536,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -8416,7 +8547,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -8427,7 +8558,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B30E9E9-EBAE-4D33-8DB1-A47DE49FF441}">
           <x14:formula1>
             <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
@@ -8454,7 +8585,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C37"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8496,13 +8627,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8510,13 +8641,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8524,10 +8655,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8535,10 +8666,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8546,16 +8677,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -8613,7 +8753,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$4</f>
@@ -8629,7 +8769,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$4</f>
@@ -8645,7 +8785,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$4</f>
@@ -8661,7 +8801,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$4</f>
@@ -8709,7 +8849,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$4</f>
@@ -8725,7 +8865,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$4</f>
@@ -8741,7 +8881,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$4</f>
@@ -8770,7 +8910,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -8782,7 +8922,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -8794,10 +8934,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="13"/>
     </row>
@@ -8806,10 +8946,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -8818,7 +8958,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -8830,7 +8970,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -8842,7 +8982,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -8854,7 +8994,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -8866,7 +9006,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -8878,7 +9018,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -8890,7 +9030,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -8902,7 +9042,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -8914,10 +9054,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="13"/>
     </row>
@@ -8926,7 +9066,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -8938,7 +9078,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -8950,7 +9090,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -8961,7 +9101,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -8972,7 +9112,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -8983,7 +9123,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -8994,7 +9134,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -9005,7 +9145,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -9016,7 +9156,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -9054,7 +9194,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9096,13 +9236,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9110,13 +9250,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9124,10 +9264,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9135,10 +9275,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9146,16 +9286,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -9213,7 +9362,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$5</f>
@@ -9229,7 +9378,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$5</f>
@@ -9245,7 +9394,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$5</f>
@@ -9261,7 +9410,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$5</f>
@@ -9309,7 +9458,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$5</f>
@@ -9325,7 +9474,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$5</f>
@@ -9341,7 +9490,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$5</f>
@@ -9370,7 +9519,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -9381,7 +9530,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -9392,7 +9541,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -9403,7 +9552,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -9414,7 +9563,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -9425,7 +9574,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -9436,7 +9585,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -9447,7 +9596,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -9458,10 +9607,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9469,10 +9618,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -9480,7 +9629,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -9491,7 +9640,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -9502,10 +9651,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -9513,7 +9662,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -9524,10 +9673,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -9535,7 +9684,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -9546,7 +9695,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -9557,7 +9706,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -9568,7 +9717,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -9579,7 +9728,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -9590,7 +9739,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -9601,7 +9750,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -9638,8 +9787,8 @@
   </sheetPr>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9681,13 +9830,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9695,13 +9844,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9709,10 +9858,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -9720,13 +9869,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9734,20 +9883,29 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <f>25 * 40</f>
-        <v>1000</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9">
+        <f>25 * 40</f>
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -9805,7 +9963,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$6</f>
@@ -9821,7 +9979,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$6</f>
@@ -9837,7 +9995,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$6</f>
@@ -9853,7 +10011,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$6</f>
@@ -9901,7 +10059,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$6</f>
@@ -9917,7 +10075,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$6</f>
@@ -9933,7 +10091,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$6</f>
@@ -9962,7 +10120,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -9973,10 +10131,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -9984,7 +10142,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -9995,7 +10153,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -10006,10 +10164,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -10017,10 +10175,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10028,7 +10186,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -10039,7 +10197,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -10050,7 +10208,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -10061,7 +10219,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -10072,10 +10230,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10083,7 +10241,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -10094,7 +10252,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -10105,10 +10263,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -10116,7 +10274,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -10127,7 +10285,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -10138,7 +10296,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -10149,7 +10307,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -10160,10 +10318,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10171,10 +10329,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -10182,7 +10340,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -10193,7 +10351,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -10234,7 +10392,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10276,10 +10434,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10287,10 +10445,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10298,10 +10456,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10309,10 +10467,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>89</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10320,16 +10478,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -10387,7 +10554,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$7</f>
@@ -10403,7 +10570,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$7</f>
@@ -10419,7 +10586,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$7</f>
@@ -10435,7 +10602,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$7</f>
@@ -10483,7 +10650,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$7</f>
@@ -10499,7 +10666,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$7</f>
@@ -10515,7 +10682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$7</f>
@@ -10544,7 +10711,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -10555,7 +10722,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -10566,7 +10733,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -10577,7 +10744,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -10588,7 +10755,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -10599,7 +10766,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -10610,10 +10777,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -10621,7 +10788,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -10632,7 +10799,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -10643,7 +10810,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -10654,7 +10821,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -10665,7 +10832,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -10676,7 +10843,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -10687,7 +10854,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -10698,7 +10865,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -10709,7 +10876,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -10720,7 +10887,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -10731,7 +10898,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -10742,7 +10909,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -10753,7 +10920,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -10764,7 +10931,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -10775,7 +10942,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -10813,7 +10980,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10855,16 +11022,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10872,13 +11039,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10886,10 +11053,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10897,10 +11064,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -10908,19 +11075,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -10978,7 +11154,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$8</f>
@@ -10994,7 +11170,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$8</f>
@@ -11010,7 +11186,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$8</f>
@@ -11026,7 +11202,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$8</f>
@@ -11074,7 +11250,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$8</f>
@@ -11090,7 +11266,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$8</f>
@@ -11106,7 +11282,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$8</f>
@@ -11135,7 +11311,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -11146,7 +11322,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -11157,10 +11333,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -11168,10 +11344,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -11179,7 +11355,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -11190,7 +11366,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -11201,7 +11377,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -11212,7 +11388,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -11223,7 +11399,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -11234,7 +11410,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -11245,7 +11421,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -11256,7 +11432,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -11267,10 +11443,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -11278,7 +11454,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -11289,7 +11465,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -11300,7 +11476,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -11311,7 +11487,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -11322,7 +11498,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -11333,7 +11509,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -11344,7 +11520,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -11355,7 +11531,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -11366,7 +11542,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -11406,8 +11582,8 @@
   </sheetPr>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11449,13 +11625,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -11463,13 +11639,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11477,10 +11653,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>84</v>
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11488,10 +11664,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11499,19 +11675,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -11569,7 +11754,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$9</f>
@@ -11585,7 +11770,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$9</f>
@@ -11601,7 +11786,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$9</f>
@@ -11617,7 +11802,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$9</f>
@@ -11665,7 +11850,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$9</f>
@@ -11681,7 +11866,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$9</f>
@@ -11697,7 +11882,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$9</f>
@@ -11726,7 +11911,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -11737,7 +11922,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -11748,7 +11933,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -11759,7 +11944,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -11770,7 +11955,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -11781,7 +11966,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -11792,7 +11977,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -11803,7 +11988,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -11814,10 +11999,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -11825,10 +12010,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -11836,7 +12021,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -11847,7 +12032,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -11858,10 +12043,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -11869,7 +12054,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -11880,10 +12065,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -11891,7 +12076,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -11902,7 +12087,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -11913,7 +12098,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -11924,7 +12109,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -11935,7 +12120,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -11946,7 +12131,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -11957,7 +12142,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2015\1567009.01 - CCH NPDES Effluent Limit Planning\16-1.B&amp;C Str BMP Prioritization\Structural BMPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="36" documentId="8EB54104638D7764E32C6DC994E22C0FC29E9BEA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{1CA21C18-4C1B-4D0D-B1F8-F18B885D22C7}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Sheet" sheetId="18" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="136">
   <si>
     <t>Hydrodynamic Separation</t>
   </si>
@@ -188,9 +189,6 @@
     <t>NN</t>
   </si>
   <si>
-    <t>WQV</t>
-  </si>
-  <si>
     <t>(ft^3)</t>
   </si>
   <si>
@@ -212,9 +210,6 @@
     <t>AN</t>
   </si>
   <si>
-    <t>WQFR</t>
-  </si>
-  <si>
     <t>(ft^3/sec)</t>
   </si>
   <si>
@@ -275,9 +270,6 @@
     <t>(ft^2)</t>
   </si>
   <si>
-    <t>Estimated Footprint</t>
-  </si>
-  <si>
     <t>Estimated Footprint / 43560</t>
   </si>
   <si>
@@ -296,9 +288,6 @@
     <t>3*WQV</t>
   </si>
   <si>
-    <t>Num_Of_CBs</t>
-  </si>
-  <si>
     <t>2500*Num_Of_CBs</t>
   </si>
   <si>
@@ -431,13 +420,31 @@
     <t>footprint area for bmp</t>
   </si>
   <si>
-    <t>Drainage_Area_Acres</t>
-  </si>
-  <si>
     <t>BMP_SIZE_Equation (ft^2)</t>
   </si>
   <si>
     <t>BMP_SIZE_Equation</t>
+  </si>
+  <si>
+    <t>var.WQFR</t>
+  </si>
+  <si>
+    <t>var.WQV</t>
+  </si>
+  <si>
+    <t>var.Num_Of_CBs</t>
+  </si>
+  <si>
+    <t>var.Estimated Footprint</t>
+  </si>
+  <si>
+    <t>var.Area_EM_SF</t>
+  </si>
+  <si>
+    <t>var.Paving_Disrepair_SF</t>
+  </si>
+  <si>
+    <t>var.Drainage_Area_Acres</t>
   </si>
 </sst>
 </file>
@@ -1822,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7E98C2-0016-4A4B-9FFE-BD3B62F27FF1}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,28 +1967,28 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -1990,16 +1997,16 @@
         <v>4</v>
       </c>
       <c r="K2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>5</v>
@@ -2011,76 +2018,76 @@
         <v>49</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" t="s">
         <v>97</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>99</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>100</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AD2" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>105</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>108</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>111</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>112</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>113</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>114</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2093,11 +2100,11 @@
       </c>
       <c r="C3" s="23" t="str">
         <f ca="1">VLOOKUP(C$1,INDIRECT("'BMP"&amp;$A3&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="D3" s="23" t="str">
         <f t="shared" ref="D3:AO9" ca="1" si="0">VLOOKUP(D$1,INDIRECT("'BMP"&amp;$A3&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="E3" s="23" t="str">
         <f t="shared" ref="E3:E9" ca="1" si="1">VLOOKUP(E$1,INDIRECT("'BMP"&amp;$A3&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
@@ -2258,15 +2265,15 @@
       </c>
       <c r="C4" s="23" t="str">
         <f t="shared" ref="C4:S15" ca="1" si="3">VLOOKUP(C$1,INDIRECT("'BMP"&amp;$A4&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="D4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="E4" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="F4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2423,15 +2430,15 @@
       </c>
       <c r="C5" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="D5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="E5" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="F5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2588,15 +2595,15 @@
       </c>
       <c r="C6" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="D6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="E6" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="F6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2753,7 +2760,7 @@
       </c>
       <c r="C7" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQV</v>
+        <v>var.WQV</v>
       </c>
       <c r="D7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2918,11 +2925,11 @@
       </c>
       <c r="C8" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Num_Of_CBs</v>
+        <v>var.Num_Of_CBs</v>
       </c>
       <c r="D8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Num_Of_CBs</v>
+        <v>var.Num_Of_CBs</v>
       </c>
       <c r="E8" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3083,15 +3090,15 @@
       </c>
       <c r="C9" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQV</v>
+        <v>var.WQV</v>
       </c>
       <c r="D9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WQV</v>
+        <v>var.WQV</v>
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WQV</v>
+        <v>var.WQV</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3248,15 +3255,15 @@
       </c>
       <c r="C10" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="D10" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="E10" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3413,7 +3420,7 @@
       </c>
       <c r="C11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Estimated Footprint</v>
+        <v>var.Estimated Footprint</v>
       </c>
       <c r="D11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3421,7 +3428,7 @@
       </c>
       <c r="E11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Area_EM_SF</v>
+        <v>var.Area_EM_SF</v>
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3578,7 +3585,7 @@
       </c>
       <c r="C12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Estimated Footprint</v>
+        <v>var.Estimated Footprint</v>
       </c>
       <c r="D12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3586,7 +3593,7 @@
       </c>
       <c r="E12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Paving_Disrepair_SF</v>
+        <v>var.Paving_Disrepair_SF</v>
       </c>
       <c r="F12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3743,15 +3750,15 @@
       </c>
       <c r="C13" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="D13" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="E13" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQFR</v>
+        <v>var.WQFR</v>
       </c>
       <c r="F13" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3908,7 +3915,7 @@
       </c>
       <c r="C14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQV</v>
+        <v>var.WQV</v>
       </c>
       <c r="D14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3916,7 +3923,7 @@
       </c>
       <c r="E14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Drainage_Area_Acres</v>
+        <v>var.Drainage_Area_Acres</v>
       </c>
       <c r="F14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4073,15 +4080,15 @@
       </c>
       <c r="C15" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQV</v>
+        <v>var.WQV</v>
       </c>
       <c r="D15" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQV</v>
+        <v>var.WQV</v>
       </c>
       <c r="E15" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQV</v>
+        <v>var.WQV</v>
       </c>
       <c r="F15" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4282,7 +4289,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4324,10 +4331,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4335,7 +4342,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -4346,10 +4353,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4360,7 +4367,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4379,13 +4386,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4444,7 +4451,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5">
         <f>'[1]Table 2 - Selected BMP'!$I$10</f>
@@ -4460,7 +4467,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5">
         <f>'[1]Table 2 - Selected BMP'!$O$10</f>
@@ -4476,7 +4483,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5">
         <f>'[1]Table 2 - Selected BMP'!$R$10</f>
@@ -4492,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5">
         <f>'[1]Table 2 - Selected BMP'!$U$10</f>
@@ -4556,7 +4563,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="5">
         <f>'[1]Table 2 - Selected BMP'!$AG$10</f>
@@ -4572,7 +4579,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5">
         <f>'[1]Table 2 - Selected BMP'!$AJ$10</f>
@@ -4601,7 +4608,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>15</v>
@@ -4612,7 +4619,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -4623,7 +4630,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -4634,7 +4641,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -4645,7 +4652,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -4656,7 +4663,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -4667,7 +4674,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -4678,7 +4685,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -4689,7 +4696,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -4700,7 +4707,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -4711,7 +4718,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -4722,7 +4729,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -4733,7 +4740,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -4744,7 +4751,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -4755,7 +4762,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -4766,7 +4773,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>41</v>
@@ -4777,7 +4784,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -4788,7 +4795,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -4799,7 +4806,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -4810,7 +4817,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -4821,7 +4828,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -4832,7 +4839,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -4876,7 +4883,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4918,13 +4925,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4932,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -4943,10 +4950,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4957,7 +4964,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,13 +4983,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -5041,7 +5048,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$11</f>
@@ -5057,7 +5064,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$11</f>
@@ -5073,7 +5080,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$11</f>
@@ -5089,7 +5096,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$11</f>
@@ -5153,7 +5160,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$11</f>
@@ -5169,7 +5176,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$11</f>
@@ -5198,7 +5205,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>15</v>
@@ -5209,7 +5216,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>15</v>
@@ -5220,7 +5227,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -5231,7 +5238,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -5242,7 +5249,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -5253,7 +5260,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -5264,7 +5271,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -5275,7 +5282,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -5286,7 +5293,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -5297,7 +5304,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -5308,7 +5315,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -5319,7 +5326,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -5330,7 +5337,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -5341,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -5352,7 +5359,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -5363,7 +5370,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -5374,7 +5381,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>42</v>
@@ -5385,7 +5392,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -5396,7 +5403,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -5407,7 +5414,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -5418,7 +5425,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -5429,7 +5436,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -5473,7 +5480,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5515,13 +5522,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5529,13 +5536,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5543,10 +5550,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -5557,7 +5564,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,7 +5575,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -5576,13 +5583,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -5641,7 +5648,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5">
         <f>'[1]Table 2 - Selected BMP'!$I$12</f>
@@ -5657,7 +5664,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="18">
         <f>'[1]Table 2 - Selected BMP'!$O$12</f>
@@ -5673,7 +5680,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="18">
         <f>'[1]Table 2 - Selected BMP'!$R$12</f>
@@ -5689,7 +5696,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="18">
         <f>'[1]Table 2 - Selected BMP'!$U$12</f>
@@ -5753,7 +5760,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="18">
         <f>'[1]Table 2 - Selected BMP'!$AG$12</f>
@@ -5769,7 +5776,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="18">
         <f>'[1]Table 2 - Selected BMP'!$AJ$12</f>
@@ -5798,7 +5805,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -5809,7 +5816,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -5820,10 +5827,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5831,10 +5838,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5842,7 +5849,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -5853,7 +5860,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -5864,7 +5871,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -5875,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -5886,7 +5893,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -5897,7 +5904,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -5908,7 +5915,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -5919,7 +5926,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -5930,7 +5937,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -5941,7 +5948,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -5952,7 +5959,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -5963,7 +5970,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -5974,7 +5981,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -5985,7 +5992,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -5996,7 +6003,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -6007,7 +6014,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -6018,10 +6025,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -6029,7 +6036,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -6067,7 +6074,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6109,13 +6116,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -6126,13 +6133,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6140,10 +6147,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6154,7 +6161,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>43</v>
@@ -6168,7 +6175,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6176,13 +6183,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6241,7 +6248,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$13</f>
@@ -6257,7 +6264,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$13</f>
@@ -6273,7 +6280,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$13</f>
@@ -6289,7 +6296,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$13</f>
@@ -6353,7 +6360,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$13</f>
@@ -6369,7 +6376,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$13</f>
@@ -6398,7 +6405,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -6409,7 +6416,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>18</v>
@@ -6420,7 +6427,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -6431,7 +6438,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -6442,7 +6449,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -6453,7 +6460,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>30</v>
@@ -6464,7 +6471,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -6475,7 +6482,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -6486,7 +6493,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -6497,7 +6504,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -6508,7 +6515,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -6519,7 +6526,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -6530,7 +6537,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -6541,7 +6548,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>44</v>
@@ -6552,7 +6559,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -6563,7 +6570,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -6574,7 +6581,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -6585,7 +6592,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -6596,7 +6603,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -6607,10 +6614,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -6618,7 +6625,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -6629,7 +6636,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -6666,8 +6673,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6709,13 +6716,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6723,13 +6730,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6737,10 +6744,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6751,7 +6758,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6773,13 +6780,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -6834,7 +6841,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -6848,7 +6855,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -6862,7 +6869,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -6876,7 +6883,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -6932,7 +6939,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -6946,7 +6953,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -6973,7 +6980,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -6984,7 +6991,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -6995,10 +7002,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7006,10 +7013,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7017,7 +7024,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -7028,7 +7035,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -7039,7 +7046,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -7050,7 +7057,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -7061,7 +7068,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -7072,7 +7079,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -7083,7 +7090,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -7094,7 +7101,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -7105,7 +7112,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -7116,7 +7123,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -7127,7 +7134,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -7138,7 +7145,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -7149,7 +7156,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -7160,7 +7167,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -7171,7 +7178,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -7182,7 +7189,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -7193,7 +7200,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -7204,7 +7211,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -7255,27 +7262,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -7290,7 +7297,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -7300,7 +7307,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -7335,22 +7342,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -7371,7 +7378,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7413,13 +7420,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7427,13 +7434,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7441,7 +7448,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -7455,7 +7462,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7466,7 +7473,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7474,14 +7481,14 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" s="15">
         <f>ROUND(3.14*(4^2),0)</f>
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7540,7 +7547,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$2</f>
@@ -7556,7 +7563,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$2</f>
@@ -7572,7 +7579,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$2</f>
@@ -7588,7 +7595,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$2</f>
@@ -7652,7 +7659,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$2</f>
@@ -7668,7 +7675,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$2</f>
@@ -7698,7 +7705,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -7710,7 +7717,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -7722,10 +7729,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D27" s="14"/>
     </row>
@@ -7734,10 +7741,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D28" s="14"/>
     </row>
@@ -7746,7 +7753,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -7758,7 +7765,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -7770,7 +7777,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -7782,7 +7789,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -7794,7 +7801,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -7806,7 +7813,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -7818,7 +7825,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -7830,7 +7837,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -7842,7 +7849,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -7854,7 +7861,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -7866,7 +7873,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -7878,7 +7885,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -7889,7 +7896,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -7900,7 +7907,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -7911,7 +7918,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -7922,7 +7929,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -7933,7 +7940,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -7944,7 +7951,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -7976,7 +7983,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8018,13 +8025,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8032,13 +8039,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8046,10 +8053,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8060,7 +8067,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8071,7 +8078,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8079,13 +8086,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8144,7 +8151,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$3</f>
@@ -8160,7 +8167,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$3</f>
@@ -8176,7 +8183,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$3</f>
@@ -8192,7 +8199,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$3</f>
@@ -8256,7 +8263,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$3</f>
@@ -8272,7 +8279,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$3</f>
@@ -8301,7 +8308,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -8313,7 +8320,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -8325,10 +8332,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D27" s="13"/>
     </row>
@@ -8337,10 +8344,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -8349,7 +8356,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -8361,7 +8368,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -8373,7 +8380,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -8385,7 +8392,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -8397,7 +8404,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -8409,7 +8416,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -8421,7 +8428,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -8433,7 +8440,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -8445,7 +8452,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -8457,7 +8464,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -8469,7 +8476,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -8481,7 +8488,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -8492,7 +8499,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -8503,7 +8510,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -8514,7 +8521,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -8525,7 +8532,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -8536,7 +8543,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -8547,7 +8554,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -8585,7 +8592,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8627,13 +8634,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8641,13 +8648,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8655,10 +8662,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8669,7 +8676,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8680,7 +8687,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8688,13 +8695,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8753,7 +8760,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$4</f>
@@ -8769,7 +8776,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$4</f>
@@ -8785,7 +8792,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$4</f>
@@ -8801,7 +8808,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$4</f>
@@ -8865,7 +8872,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$4</f>
@@ -8881,7 +8888,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$4</f>
@@ -8910,7 +8917,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -8922,7 +8929,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -8934,10 +8941,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D27" s="13"/>
     </row>
@@ -8946,10 +8953,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -8958,7 +8965,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -8970,7 +8977,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -8982,7 +8989,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -8994,7 +9001,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -9006,7 +9013,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -9018,7 +9025,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -9030,7 +9037,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -9042,7 +9049,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -9054,7 +9061,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -9066,7 +9073,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -9078,7 +9085,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -9090,7 +9097,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -9101,7 +9108,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -9112,7 +9119,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -9123,7 +9130,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -9134,7 +9141,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -9145,7 +9152,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -9156,7 +9163,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -9194,7 +9201,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9236,13 +9243,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9250,13 +9257,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9264,10 +9271,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9278,7 +9285,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9289,7 +9296,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -9297,13 +9304,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -9362,7 +9369,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$5</f>
@@ -9378,7 +9385,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$5</f>
@@ -9394,7 +9401,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$5</f>
@@ -9410,7 +9417,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$5</f>
@@ -9474,7 +9481,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$5</f>
@@ -9490,7 +9497,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$5</f>
@@ -9519,7 +9526,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -9530,7 +9537,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -9541,7 +9548,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -9552,7 +9559,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -9563,7 +9570,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -9574,7 +9581,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -9585,7 +9592,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -9596,7 +9603,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -9607,10 +9614,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9618,7 +9625,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>33</v>
@@ -9629,7 +9636,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -9640,7 +9647,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -9651,7 +9658,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -9662,7 +9669,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -9673,7 +9680,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>36</v>
@@ -9684,7 +9691,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -9695,7 +9702,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -9706,7 +9713,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -9717,7 +9724,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -9728,7 +9735,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -9739,7 +9746,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -9750,7 +9757,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -9788,7 +9795,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9830,13 +9837,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9844,13 +9851,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9858,7 +9865,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -9872,7 +9879,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>28</v>
@@ -9886,7 +9893,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>48</v>
@@ -9897,14 +9904,14 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <f>25 * 40</f>
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -9963,7 +9970,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$6</f>
@@ -9979,7 +9986,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$6</f>
@@ -9995,7 +10002,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$6</f>
@@ -10011,7 +10018,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$6</f>
@@ -10075,7 +10082,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$6</f>
@@ -10091,7 +10098,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$6</f>
@@ -10120,7 +10127,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -10131,10 +10138,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -10142,7 +10149,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -10153,7 +10160,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -10164,10 +10171,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -10175,10 +10182,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10186,7 +10193,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -10197,7 +10204,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -10208,7 +10215,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -10219,7 +10226,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -10230,10 +10237,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10241,7 +10248,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -10252,7 +10259,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -10263,7 +10270,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>44</v>
@@ -10274,7 +10281,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -10285,7 +10292,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -10296,7 +10303,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -10307,7 +10314,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -10318,10 +10325,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10329,10 +10336,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -10340,7 +10347,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -10351,7 +10358,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -10392,7 +10399,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10434,10 +10441,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10445,10 +10452,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10456,7 +10463,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -10470,7 +10477,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10481,7 +10488,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10489,13 +10496,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10554,7 +10561,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$7</f>
@@ -10570,7 +10577,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$7</f>
@@ -10586,7 +10593,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$7</f>
@@ -10602,7 +10609,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$7</f>
@@ -10666,7 +10673,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$7</f>
@@ -10682,7 +10689,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$7</f>
@@ -10711,7 +10718,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -10722,7 +10729,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -10733,7 +10740,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -10744,7 +10751,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -10755,7 +10762,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -10766,7 +10773,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -10777,7 +10784,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>31</v>
@@ -10788,7 +10795,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -10799,7 +10806,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -10810,7 +10817,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -10821,7 +10828,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -10832,7 +10839,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -10843,7 +10850,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -10854,7 +10861,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -10865,7 +10872,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -10876,7 +10883,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -10887,7 +10894,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -10898,7 +10905,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -10909,7 +10916,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -10920,7 +10927,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -10931,7 +10938,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -10942,7 +10949,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -10980,7 +10987,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11022,13 +11029,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -11039,13 +11046,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11053,10 +11060,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11067,7 +11074,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11078,7 +11085,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>47</v>
@@ -11089,13 +11096,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -11154,7 +11161,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$8</f>
@@ -11170,7 +11177,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$8</f>
@@ -11186,7 +11193,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$8</f>
@@ -11202,7 +11209,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$8</f>
@@ -11266,7 +11273,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$8</f>
@@ -11282,7 +11289,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$8</f>
@@ -11311,7 +11318,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -11322,7 +11329,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -11333,10 +11340,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -11344,10 +11351,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -11355,7 +11362,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -11366,7 +11373,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -11377,7 +11384,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -11388,7 +11395,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -11399,7 +11406,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -11410,7 +11417,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -11421,7 +11428,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -11432,7 +11439,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -11443,7 +11450,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -11454,7 +11461,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -11465,7 +11472,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -11476,7 +11483,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -11487,7 +11494,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -11498,7 +11505,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -11509,7 +11516,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -11520,7 +11527,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -11531,7 +11538,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -11542,7 +11549,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -11556,7 +11563,7 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BD85F3C-AA08-4F41-89D0-927A62212CFF}">
           <x14:formula1>
             <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
@@ -11583,7 +11590,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11625,13 +11632,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -11639,13 +11646,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11653,10 +11660,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11667,7 +11674,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11678,7 +11685,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>40</v>
@@ -11689,13 +11696,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -11754,7 +11761,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$9</f>
@@ -11770,7 +11777,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$9</f>
@@ -11786,7 +11793,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$9</f>
@@ -11802,7 +11809,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$9</f>
@@ -11866,7 +11873,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$9</f>
@@ -11882,7 +11889,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$9</f>
@@ -11911,7 +11918,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -11922,7 +11929,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -11933,7 +11940,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -11944,7 +11951,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -11955,7 +11962,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -11966,7 +11973,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -11977,7 +11984,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -11988,7 +11995,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -11999,10 +12006,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -12010,7 +12017,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>33</v>
@@ -12021,7 +12028,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -12032,7 +12039,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -12043,7 +12050,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -12054,7 +12061,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -12065,7 +12072,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>36</v>
@@ -12076,7 +12083,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -12087,7 +12094,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -12098,7 +12105,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -12109,7 +12116,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -12120,7 +12127,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -12131,7 +12138,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -12142,7 +12149,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8EB54104638D7764E32C6DC994E22C0FC29E9BEA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{1CA21C18-4C1B-4D0D-B1F8-F18B885D22C7}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8EB54104638D7764E32C6DC994E22C0FC29E9BEA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{9E819E7E-6E27-413E-8B55-836E4AC494A5}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Sheet" sheetId="18" r:id="rId1"/>
@@ -426,25 +426,25 @@
     <t>BMP_SIZE_Equation</t>
   </si>
   <si>
-    <t>var.WQFR</t>
-  </si>
-  <si>
-    <t>var.WQV</t>
-  </si>
-  <si>
-    <t>var.Num_Of_CBs</t>
-  </si>
-  <si>
-    <t>var.Estimated Footprint</t>
-  </si>
-  <si>
-    <t>var.Area_EM_SF</t>
-  </si>
-  <si>
-    <t>var.Paving_Disrepair_SF</t>
-  </si>
-  <si>
-    <t>var.Drainage_Area_Acres</t>
+    <t>var|WQFR</t>
+  </si>
+  <si>
+    <t>var|WQV</t>
+  </si>
+  <si>
+    <t>var|Num_Of_CBs</t>
+  </si>
+  <si>
+    <t>var|Estimated Footprint</t>
+  </si>
+  <si>
+    <t>var|Area_EM_SF</t>
+  </si>
+  <si>
+    <t>var|Paving_Disrepair_SF</t>
+  </si>
+  <si>
+    <t>var|Drainage_Area_Acres</t>
   </si>
 </sst>
 </file>
@@ -1829,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7E98C2-0016-4A4B-9FFE-BD3B62F27FF1}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2100,11 +2100,11 @@
       </c>
       <c r="C3" s="23" t="str">
         <f ca="1">VLOOKUP(C$1,INDIRECT("'BMP"&amp;$A3&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="D3" s="23" t="str">
         <f t="shared" ref="D3:AO9" ca="1" si="0">VLOOKUP(D$1,INDIRECT("'BMP"&amp;$A3&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="E3" s="23" t="str">
         <f t="shared" ref="E3:E9" ca="1" si="1">VLOOKUP(E$1,INDIRECT("'BMP"&amp;$A3&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
@@ -2265,15 +2265,15 @@
       </c>
       <c r="C4" s="23" t="str">
         <f t="shared" ref="C4:S15" ca="1" si="3">VLOOKUP(C$1,INDIRECT("'BMP"&amp;$A4&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="D4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="E4" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="F4" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2430,15 +2430,15 @@
       </c>
       <c r="C5" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="D5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="E5" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="F5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2595,15 +2595,15 @@
       </c>
       <c r="C6" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="D6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="E6" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="F6" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C7" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQV</v>
+        <v>var|WQV</v>
       </c>
       <c r="D7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2925,11 +2925,11 @@
       </c>
       <c r="C8" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.Num_Of_CBs</v>
+        <v>var|Num_Of_CBs</v>
       </c>
       <c r="D8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>var.Num_Of_CBs</v>
+        <v>var|Num_Of_CBs</v>
       </c>
       <c r="E8" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3090,15 +3090,15 @@
       </c>
       <c r="C9" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQV</v>
+        <v>var|WQV</v>
       </c>
       <c r="D9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>var.WQV</v>
+        <v>var|WQV</v>
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>var.WQV</v>
+        <v>var|WQV</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3255,15 +3255,15 @@
       </c>
       <c r="C10" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="D10" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="E10" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="C11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.Estimated Footprint</v>
+        <v>var|Estimated Footprint</v>
       </c>
       <c r="D11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="E11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.Area_EM_SF</v>
+        <v>var|Area_EM_SF</v>
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.Estimated Footprint</v>
+        <v>var|Estimated Footprint</v>
       </c>
       <c r="D12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="E12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.Paving_Disrepair_SF</v>
+        <v>var|Paving_Disrepair_SF</v>
       </c>
       <c r="F12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3750,15 +3750,15 @@
       </c>
       <c r="C13" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="D13" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="E13" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQFR</v>
+        <v>var|WQFR</v>
       </c>
       <c r="F13" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="C14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQV</v>
+        <v>var|WQV</v>
       </c>
       <c r="D14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="E14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.Drainage_Area_Acres</v>
+        <v>var|Drainage_Area_Acres</v>
       </c>
       <c r="F14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4080,15 +4080,15 @@
       </c>
       <c r="C15" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQV</v>
+        <v>var|WQV</v>
       </c>
       <c r="D15" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQV</v>
+        <v>var|WQV</v>
       </c>
       <c r="E15" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var.WQV</v>
+        <v>var|WQV</v>
       </c>
       <c r="F15" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4289,7 +4289,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4883,7 +4883,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5480,7 +5480,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6074,7 +6074,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6673,8 +6673,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7378,7 +7378,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7983,7 +7983,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8592,7 +8592,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9201,7 +9201,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9795,7 +9795,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10399,7 +10399,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10987,7 +10987,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11590,7 +11590,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2015\1567009.01 - CCH NPDES Effluent Limit Planning\16-1.B&amp;C Str BMP Prioritization\Structural BMPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8EB54104638D7764E32C6DC994E22C0FC29E9BEA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{9E819E7E-6E27-413E-8B55-836E4AC494A5}"/>
   <bookViews>
     <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="158">
   <si>
     <t>Hydrodynamic Separation</t>
   </si>
@@ -426,25 +425,91 @@
     <t>BMP_SIZE_Equation</t>
   </si>
   <si>
+    <t>Feas-1</t>
+  </si>
+  <si>
+    <t>Feas-2</t>
+  </si>
+  <si>
+    <t>Feas-3</t>
+  </si>
+  <si>
+    <t>Feas-4</t>
+  </si>
+  <si>
+    <t>Feas-5</t>
+  </si>
+  <si>
+    <t>Feas-6</t>
+  </si>
+  <si>
+    <t>Feas-7</t>
+  </si>
+  <si>
+    <t>Feas-8</t>
+  </si>
+  <si>
+    <t>Feas-9</t>
+  </si>
+  <si>
+    <t>Feas-10</t>
+  </si>
+  <si>
+    <t>Feas-11</t>
+  </si>
+  <si>
+    <t>Feas-12</t>
+  </si>
+  <si>
+    <t>Feas-13</t>
+  </si>
+  <si>
+    <t>Feas-14</t>
+  </si>
+  <si>
+    <t>Feas-15</t>
+  </si>
+  <si>
+    <t>Feas-16</t>
+  </si>
+  <si>
+    <t>Feas-17</t>
+  </si>
+  <si>
+    <t>Feas-18</t>
+  </si>
+  <si>
+    <t>Feas-19</t>
+  </si>
+  <si>
+    <t>Feas-20</t>
+  </si>
+  <si>
+    <t>Feas-21</t>
+  </si>
+  <si>
+    <t>Feas-22</t>
+  </si>
+  <si>
     <t>var|WQFR</t>
   </si>
   <si>
     <t>var|WQV</t>
   </si>
   <si>
+    <t>var|Drainage_Area_Acres</t>
+  </si>
+  <si>
+    <t>var|Estimated Footprint</t>
+  </si>
+  <si>
+    <t>var|Paving_Disrepair_SF</t>
+  </si>
+  <si>
+    <t>var|Area_EM_SF</t>
+  </si>
+  <si>
     <t>var|Num_Of_CBs</t>
-  </si>
-  <si>
-    <t>var|Estimated Footprint</t>
-  </si>
-  <si>
-    <t>var|Area_EM_SF</t>
-  </si>
-  <si>
-    <t>var|Paving_Disrepair_SF</t>
-  </si>
-  <si>
-    <t>var|Drainage_Area_Acres</t>
   </si>
 </sst>
 </file>
@@ -679,8 +744,8 @@
       <sheetName val="Dont Use"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="2">
           <cell r="C2">
             <v>0.39</v>
@@ -1498,9 +1563,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1830,7 +1895,7 @@
   <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2024,70 +2089,70 @@
         <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="U2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="V2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="W2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="X2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="Y2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="Z2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AA2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="AB2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="AD2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="AE2" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AF2" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="AG2" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="AH2" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="AI2" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="AJ2" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="AK2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="AL2" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="AM2" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="AN2" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="AO2" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4289,7 +4354,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4334,7 +4399,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4356,7 +4421,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4851,23 +4916,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60B1D275-4382-4EF4-9141-289B3BFDE0A0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A414DEFE-044A-41C8-975D-D4C233519204}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$16</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C25:C41</xm:sqref>
+          <xm:sqref>C44:C46</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3FD90AC3-BBFF-49BE-A6B6-96C24ACB63EA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E201987B-CE6D-4AFF-88C5-A13A4B815AAD}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C42:C43</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{946786A7-2F09-4858-88E9-18E05A81C82B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54ABC716-40B6-4DE1-8C88-65A464AFDA22}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C44:C46</xm:sqref>
+          <xm:sqref>C25:C41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4883,7 +4948,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4928,7 +4993,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -4953,7 +5018,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -5448,23 +5513,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{508E5BB0-8639-4CA5-968D-11F20C2BD66D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C4DCEEE-E867-4521-9CD6-A4192ADD0E54}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$16</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C25:C39</xm:sqref>
+          <xm:sqref>C44:C46</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{981524D9-5A12-4AC9-84C5-1834C0CC1EBB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35BCE6AD-FEC0-4DFD-A82A-91DEDD6ED739}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C40:C43</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{48122369-722B-45DA-A61B-D7C1CDCC9CFC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4FAB1B94-48F1-4FAA-8C32-5376D5B14AA0}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C44:C46</xm:sqref>
+          <xm:sqref>C25:C39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5480,7 +5545,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5525,7 +5590,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -5539,7 +5604,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -5553,7 +5618,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6048,17 +6113,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F48A32DA-8C83-4A90-9B96-01ACFA96A307}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{527A057F-0AD1-428B-952D-DF3ECB18C7E3}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46 C25:C37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41941DAA-0D96-48FD-85FE-2FE69FDD7FA6}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{016E5951-B2F3-4C30-A14F-5DCD312A378D}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46 C25:C37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6074,7 +6139,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6119,7 +6184,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -6150,7 +6215,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6648,17 +6713,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5C2521F8-12F7-494B-A2C2-4B7660D9F7E0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4588B3B3-273F-42BC-BF4B-E1A6C41C1878}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1438DC15-2BBC-4ECF-8353-CC9B837414E7}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C25:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3ABC8FE5-72F1-40A1-B1BA-CC62CA446D6D}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6674,7 +6739,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6719,7 +6784,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -6733,7 +6798,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -6747,7 +6812,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7222,18 +7287,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBF72899-A122-48AB-A344-F61A15714E9B}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9D64C571-4E11-4F62-94C1-78B43598EBA9}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BC815F4-717A-44C9-8CC6-8C656070B823}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C25:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{732D1DCD-4A52-417A-B5AE-9496EB1B70C8}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7378,7 +7443,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7423,7 +7488,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -7437,7 +7502,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -7963,9 +8028,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{576D5A5D-63E1-4490-B76F-4014011500E0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{747A1C8A-1C65-487A-B1D8-506F67E8E505}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C25:C46</xm:sqref>
         </x14:dataValidation>
@@ -7983,7 +8048,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8028,7 +8093,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -8042,7 +8107,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -8056,7 +8121,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8565,18 +8630,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B30E9E9-EBAE-4D33-8DB1-A47DE49FF441}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A77FD1F0-18E1-47D8-B61F-11AAB008563B}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46 C25:C37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47460AAA-CFEE-4AA4-8191-B964DD831789}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB41777A-885A-469B-88DD-461E640D2CC2}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46 C25:C37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8592,7 +8657,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8637,7 +8702,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -8651,7 +8716,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -8665,7 +8730,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9175,17 +9240,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD1BAAA2-EA25-4999-81FB-71AE0D2CAC77}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0EB29737-DFE0-40C0-BB31-6711CB5534B4}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46 C25:C37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A044982E-57A1-4CE5-BC81-9110A9EC771B}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62BC55F2-F273-4F13-8E78-7FA0CBA3BBB3}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46 C25:C37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9201,7 +9266,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9246,7 +9311,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -9260,7 +9325,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -9274,7 +9339,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9769,17 +9834,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD386E08-8C76-44B1-AD14-DBA8295B35C6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2D78351-F20A-43FB-A86A-181F0632F378}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{02C27B12-BB5A-46A2-923A-5DE97796FC50}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C25:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{831555C0-3347-4EE9-B722-4DC9F0F29DB7}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9795,7 +9860,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9840,7 +9905,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -10366,24 +10431,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{6F36AB76-C09B-410C-9714-550D4E032FB3}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{88F37BF9-D14F-4C44-9470-73D4CF43E033}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A24F32C0-CB1C-483D-883A-B193837282A9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7AC5EC-FA17-4230-8D70-93F56F3DFDA8}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB362E61-86A6-4042-BEB9-41650FB06042}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C25:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A24FE285-F82F-4999-A9A3-47BA177A5CBC}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10399,7 +10464,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10444,7 +10509,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10455,7 +10520,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10961,17 +11026,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45BBFA42-E850-4D0D-8837-F2719518AC76}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B7F37DE-2450-4571-9A8C-68ECE62922A0}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE8E8EA7-8032-426B-BDE1-E2B7D9262755}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C25:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB3D68E6-9784-4E00-A76E-02E07C332191}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10987,7 +11052,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11032,7 +11097,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -11049,7 +11114,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -11063,7 +11128,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11557,24 +11622,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="https://www.casqa.org/sites/default/files/BMPHandbooks/tc-40_from_2003_newdevelopmentredevelopment_handbook.pdf" xr:uid="{CA4F711D-B825-4AE4-B798-F374619EF2DD}"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://www.casqa.org/sites/default/files/BMPHandbooks/tc-40_from_2003_newdevelopmentredevelopment_handbook.pdf" xr:uid="{F0734FD8-F7E0-49B5-A527-D1B47A2ECC97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BD85F3C-AA08-4F41-89D0-927A62212CFF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{331E0DCC-6035-454D-A186-D8445F396624}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C75FC550-C173-440B-BC88-A3454853AC6F}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C25:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E774ED09-1704-4C55-9ACA-3A69CF86D49C}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11590,7 +11655,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11635,7 +11700,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -11649,7 +11714,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -11663,7 +11728,7 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -12161,17 +12226,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A401F2E2-081E-44D7-9E68-F5160240F3BB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3FBDF5A5-3B38-4371-9F01-FA745CADE6AD}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$19</xm:f>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44:C46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77F5A822-4788-48C1-9810-FCB1473948D1}">
+          <x14:formula1>
+            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C25:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE1670EF-E9AD-40A6-B9F0-01D0291BBA05}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$1:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44:C46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2015\1567009.01 - CCH NPDES Effluent Limit Planning\16-1.B&amp;C Str BMP Prioritization\Structural BMPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="76" documentId="D3CBFCB539476F3AB5D5C1344C094AEA2BA55794" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{CA8DFE3E-1D48-4EEC-9067-53D645840820}"/>
   <bookViews>
     <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,13 +31,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="170">
   <si>
     <t>Hydrodynamic Separation</t>
   </si>
@@ -149,15 +151,6 @@
     <t>Is there sufficient space for stormwater detention?</t>
   </si>
   <si>
-    <t>500*Drainage_Area_Acres</t>
-  </si>
-  <si>
-    <t>Paving_Disrepair_SF</t>
-  </si>
-  <si>
-    <t>Area_EM_SF</t>
-  </si>
-  <si>
     <t>Assume same as pressurized treatment</t>
   </si>
   <si>
@@ -251,15 +244,9 @@
     <t>56*WQV + 37800</t>
   </si>
   <si>
-    <t>(Acre)</t>
-  </si>
-  <si>
     <t>11000+170*WQV</t>
   </si>
   <si>
-    <t>1600*Estimated footprint / 43560</t>
-  </si>
-  <si>
     <t>67242 + 36094*WQFR</t>
   </si>
   <si>
@@ -269,15 +256,6 @@
     <t>(ft^2)</t>
   </si>
   <si>
-    <t>Estimated Footprint / 43560</t>
-  </si>
-  <si>
-    <t>3*Estimated Footprint</t>
-  </si>
-  <si>
-    <t>220*Estimated Footprint</t>
-  </si>
-  <si>
     <t>155181+ 57851*WQFR</t>
   </si>
   <si>
@@ -287,15 +265,6 @@
     <t>3*WQV</t>
   </si>
   <si>
-    <t>2500*Num_Of_CBs</t>
-  </si>
-  <si>
-    <t>2700*Num_Of_CBs</t>
-  </si>
-  <si>
-    <t>1600*Estimated Footprint / 43560</t>
-  </si>
-  <si>
     <t>Is runoff type appropriate for sheet-flow treatment</t>
   </si>
   <si>
@@ -500,16 +469,85 @@
     <t>var|Drainage_Area_Acres</t>
   </si>
   <si>
-    <t>var|Estimated Footprint</t>
-  </si>
-  <si>
-    <t>var|Paving_Disrepair_SF</t>
-  </si>
-  <si>
-    <t>var|Area_EM_SF</t>
-  </si>
-  <si>
-    <t>var|Num_Of_CBs</t>
+    <t>var|Count_CB</t>
+  </si>
+  <si>
+    <t>2500*Count_CB</t>
+  </si>
+  <si>
+    <t>2700*Count_CB</t>
+  </si>
+  <si>
+    <t>JYH REVISED</t>
+  </si>
+  <si>
+    <t>JYH REVISED (SE: 1600*Estimated Footprint / 43560)</t>
+  </si>
+  <si>
+    <t>JYH REVISED BASED ON CASQA GUIDANCE DOC</t>
+  </si>
+  <si>
+    <t>dxp|BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</t>
+  </si>
+  <si>
+    <t>JYH REVISED (SE: Estimated Footprint / 43560)</t>
+  </si>
+  <si>
+    <t>WQV/0.5 if WQV/0.5 &gt; 1000 else 1000</t>
+  </si>
+  <si>
+    <t>JYH REVISED (SE: var|Estimated Footprint)</t>
+  </si>
+  <si>
+    <t>JYH REVISED (SE: 220*Estimated Footprint)</t>
+  </si>
+  <si>
+    <t>JYH REVISED (SE: 3*Estimated Footprint)</t>
+  </si>
+  <si>
+    <t>JYH REVISED (SE: 1600*Estimated footprint / 43560)</t>
+  </si>
+  <si>
+    <t>1600*BMP_SIZE/43560</t>
+  </si>
+  <si>
+    <t>(FT^2)</t>
+  </si>
+  <si>
+    <t>JYH REVISED EXPR AND UNITS (SE: Estimated Footprint / 43560 w/ acres unit)</t>
+  </si>
+  <si>
+    <t>Acres</t>
+  </si>
+  <si>
+    <t>1600*BMP_SIZE / 43560</t>
+  </si>
+  <si>
+    <t>JYH REVISED to convert to sf (SE: 500*Drainage_Area_Acres)</t>
+  </si>
+  <si>
+    <t>500*Drainage_Area_Acres*43560</t>
+  </si>
+  <si>
+    <t>JYH REVISED TO MATCH FAC. CHAR COLUMN AREA_EM (SE: AREA_EM_SF)</t>
+  </si>
+  <si>
+    <t>var|EM_Area</t>
+  </si>
+  <si>
+    <t>EM_Area</t>
+  </si>
+  <si>
+    <t>220*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</t>
+  </si>
+  <si>
+    <t>3*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</t>
+  </si>
+  <si>
+    <t>Dmg_Pave</t>
+  </si>
+  <si>
+    <t>var|Dmg_Pave</t>
   </si>
 </sst>
 </file>
@@ -565,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +720,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,6 +756,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1566,6 +1614,19 @@
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dropdownlist"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1894,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7E98C2-0016-4A4B-9FFE-BD3B62F27FF1}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2032,28 +2093,28 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -2062,16 +2123,16 @@
         <v>4</v>
       </c>
       <c r="K2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>54</v>
-      </c>
       <c r="M2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>5</v>
@@ -2080,79 +2141,79 @@
         <v>6</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W2" t="s">
+        <v>121</v>
+      </c>
+      <c r="X2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE2" t="s">
         <v>129</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AF2" t="s">
         <v>130</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AG2" t="s">
         <v>131</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AH2" t="s">
         <v>132</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AI2" t="s">
         <v>133</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AJ2" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AK2" t="s">
         <v>135</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AL2" t="s">
         <v>136</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AM2" t="s">
         <v>137</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AN2" t="s">
         <v>138</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AO2" t="s">
         <v>139</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2829,11 +2890,11 @@
       </c>
       <c r="D7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Estimated Footprint / 43560</v>
+        <v>dxp|BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
       <c r="E7" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>N/A</v>
+        <v>var|WQV</v>
       </c>
       <c r="F7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2841,11 +2902,11 @@
       </c>
       <c r="G7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1600*Estimated Footprint / 43560</v>
-      </c>
-      <c r="H7" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>1600*BMP_SIZE/43560</v>
+      </c>
+      <c r="H7" s="23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>WQV/0.5 if WQV/0.5 &gt; 1000 else 1000</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" ca="1" si="0"/>
@@ -2990,11 +3051,11 @@
       </c>
       <c r="C8" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var|Num_Of_CBs</v>
+        <v>var|Count_CB</v>
       </c>
       <c r="D8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>var|Num_Of_CBs</v>
+        <v>var|Count_CB</v>
       </c>
       <c r="E8" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3002,11 +3063,11 @@
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2500*Num_Of_CBs</v>
+        <v>2500*Count_CB</v>
       </c>
       <c r="G8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2700*Num_Of_CBs</v>
+        <v>2700*Count_CB</v>
       </c>
       <c r="H8" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3294,19 +3355,19 @@
         <v>N/A</v>
       </c>
       <c r="AL9" s="23" t="str">
-        <f t="shared" ref="AL9:AO9" ca="1" si="4">VLOOKUP(AL$1,INDIRECT("'BMP"&amp;$A9&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
+        <f ca="1">VLOOKUP(AL$1,INDIRECT("'BMP"&amp;$A9&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>N/A</v>
       </c>
       <c r="AM9" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">VLOOKUP(AM$1,INDIRECT("'BMP"&amp;$A9&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>N/A</v>
       </c>
       <c r="AN9" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">VLOOKUP(AN$1,INDIRECT("'BMP"&amp;$A9&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>N/A</v>
       </c>
       <c r="AO9" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">VLOOKUP(AO$1,INDIRECT("'BMP"&amp;$A9&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>N/A</v>
       </c>
     </row>
@@ -3387,91 +3448,91 @@
         <v>0</v>
       </c>
       <c r="T10" s="23" t="str">
-        <f t="shared" ref="T10:AI15" ca="1" si="5">VLOOKUP(T$1,INDIRECT("'BMP"&amp;$A10&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
+        <f t="shared" ref="T10:AI15" ca="1" si="4">VLOOKUP(T$1,INDIRECT("'BMP"&amp;$A10&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
         <v>N/A</v>
       </c>
       <c r="U10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="V10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="W10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="X10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Y10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Z10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AA10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AB10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Is there high likelihood of 3-phase power at the Facility?</v>
+      </c>
+      <c r="AC10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have a downstream sewer collection system?</v>
+      </c>
+      <c r="AD10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AE10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility potentially have space to install?</v>
+      </c>
+      <c r="AG10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AH10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Is there sufficient space for stormwater detention?</v>
+      </c>
+      <c r="AI10" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AJ10" s="23" t="str">
+        <f t="shared" ref="AJ10:AO15" ca="1" si="5">VLOOKUP(AJ$1,INDIRECT("'BMP"&amp;$A10&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
+        <v>N/A</v>
+      </c>
+      <c r="AK10" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="V10" s="23" t="str">
+      <c r="AL10" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="W10" s="23" t="str">
+      <c r="AM10" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="X10" s="23" t="str">
+      <c r="AN10" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="Y10" s="23" t="str">
+      <c r="AO10" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="Z10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AA10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AB10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Is there high likelihood of 3-phase power at the Facility?</v>
-      </c>
-      <c r="AC10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have a downstream sewer collection system?</v>
-      </c>
-      <c r="AD10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AE10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AF10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Does Facility potentially have space to install?</v>
-      </c>
-      <c r="AG10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AH10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Is there sufficient space for stormwater detention?</v>
-      </c>
-      <c r="AI10" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AJ10" s="23" t="str">
-        <f t="shared" ref="AJ10:AO15" ca="1" si="6">VLOOKUP(AJ$1,INDIRECT("'BMP"&amp;$A10&amp;"'!"&amp;"$A$2:$D$46"),3,0)</f>
-        <v>N/A</v>
-      </c>
-      <c r="AK10" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AL10" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AM10" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AN10" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AO10" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
     </row>
@@ -3485,7 +3546,7 @@
       </c>
       <c r="C11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var|Estimated Footprint</v>
+        <v>dxp|BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
       <c r="D11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3493,11 +3554,11 @@
       </c>
       <c r="E11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var|Area_EM_SF</v>
+        <v>var|EM_Area</v>
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>220*Estimated Footprint</v>
+        <v>220*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
       <c r="G11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3505,7 +3566,7 @@
       </c>
       <c r="H11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Area_EM_SF</v>
+        <v>EM_Area</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" ca="1" si="3"/>
@@ -3552,91 +3613,91 @@
         <v>1</v>
       </c>
       <c r="T11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="U11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="V11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="W11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="X11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Y11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Z11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AA11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AB11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AC11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AD11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AE11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AG11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AH11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AI11" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have Area of Exposed Materials &gt; 0 square feet?</v>
+      </c>
+      <c r="AJ11" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="U11" s="23" t="str">
+      <c r="AK11" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="V11" s="23" t="str">
+      <c r="AL11" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="W11" s="23" t="str">
+      <c r="AM11" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="X11" s="23" t="str">
+      <c r="AN11" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="Y11" s="23" t="str">
+      <c r="AO11" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="Z11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AA11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AB11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AC11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AE11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AF11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AG11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AH11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AI11" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have Area of Exposed Materials &gt; 0 square feet?</v>
-      </c>
-      <c r="AJ11" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AK11" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AL11" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AM11" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AN11" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AO11" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
     </row>
@@ -3650,7 +3711,7 @@
       </c>
       <c r="C12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var|Estimated Footprint</v>
+        <v>dxp|BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
       <c r="D12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3658,11 +3719,11 @@
       </c>
       <c r="E12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>var|Paving_Disrepair_SF</v>
+        <v>var|Dmg_Pave</v>
       </c>
       <c r="F12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3*Estimated Footprint</v>
+        <v>3*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
       <c r="G12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3670,7 +3731,7 @@
       </c>
       <c r="H12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Paving_Disrepair_SF</v>
+        <v>Dmg_Pave</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" ca="1" si="3"/>
@@ -3717,91 +3778,91 @@
         <v>0</v>
       </c>
       <c r="T12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="U12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="V12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="W12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="X12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Y12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Z12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AA12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AB12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AC12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AD12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AE12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AG12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AH12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AI12" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AJ12" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="U12" s="23" t="str">
+        <v>Does Facility have Area of Damaged Pavement &gt; 0 square feet?</v>
+      </c>
+      <c r="AK12" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="V12" s="23" t="str">
+      <c r="AL12" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="W12" s="23" t="str">
+      <c r="AM12" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="X12" s="23" t="str">
+      <c r="AN12" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="Y12" s="23" t="str">
+      <c r="AO12" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="Z12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AA12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AB12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AC12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AE12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AF12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AG12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AH12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AI12" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AJ12" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Does Facility have Area of Damaged Pavement &gt; 0 square feet?</v>
-      </c>
-      <c r="AK12" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AL12" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AM12" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AN12" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AO12" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
     </row>
@@ -3882,91 +3943,91 @@
         <v>0</v>
       </c>
       <c r="T13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have downstream stormdrain collection system?</v>
+      </c>
+      <c r="U13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="V13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
+      </c>
+      <c r="W13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
+      </c>
+      <c r="X13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Y13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Z13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AA13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AB13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AC13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AD13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AE13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility potentially have space to install?</v>
+      </c>
+      <c r="AG13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AH13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AI13" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AJ13" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have downstream stormdrain collection system?</v>
-      </c>
-      <c r="U13" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="AK13" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="V13" s="23" t="str">
+      <c r="AL13" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
-      </c>
-      <c r="W13" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="AM13" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
-      </c>
-      <c r="X13" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="AN13" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="Y13" s="23" t="str">
+        <v>Is Facility clear of existing structural BMPs</v>
+      </c>
+      <c r="AO13" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="Z13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AA13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AB13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AC13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AE13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AF13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Does Facility potentially have space to install?</v>
-      </c>
-      <c r="AG13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AH13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AI13" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AJ13" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AK13" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AL13" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AM13" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AN13" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Is Facility clear of existing structural BMPs</v>
-      </c>
-      <c r="AO13" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
     </row>
@@ -3984,7 +4045,7 @@
       </c>
       <c r="D14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Estimated Footprint / 43560</v>
+        <v>dxp|BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
       <c r="E14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3996,11 +4057,11 @@
       </c>
       <c r="G14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1600*Estimated footprint / 43560</v>
+        <v>1600*BMP_SIZE / 43560</v>
       </c>
       <c r="H14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>500*Drainage_Area_Acres</v>
+        <v>500*Drainage_Area_Acres*43560</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" ca="1" si="3"/>
@@ -4047,91 +4108,91 @@
         <v>0</v>
       </c>
       <c r="T14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have downstream stormdrain collection system?</v>
+      </c>
+      <c r="U14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have high groundwater, which would make BMP infeasible?</v>
+      </c>
+      <c r="V14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="W14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="X14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have rock soils, which would make the BMP infeasible?</v>
+      </c>
+      <c r="Y14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have clay soils, which would make the BMP infeasible?</v>
+      </c>
+      <c r="Z14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AA14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AB14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AC14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AD14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AE14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AG14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have more unpaved space (SF) than the required BMP size?</v>
+      </c>
+      <c r="AH14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AI14" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AJ14" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have downstream stormdrain collection system?</v>
-      </c>
-      <c r="U14" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="AK14" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have high groundwater, which would make BMP infeasible?</v>
-      </c>
-      <c r="V14" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="AL14" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="W14" s="23" t="str">
+      <c r="AM14" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="X14" s="23" t="str">
+        <v>Is runoff type appropriate for sheet-flow treatment</v>
+      </c>
+      <c r="AN14" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have rock soils, which would make the BMP infeasible?</v>
-      </c>
-      <c r="Y14" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="AO14" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have clay soils, which would make the BMP infeasible?</v>
-      </c>
-      <c r="Z14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AA14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AB14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AC14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AE14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AF14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AG14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have more unpaved space (SF) than the required BMP size?</v>
-      </c>
-      <c r="AH14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AI14" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AJ14" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AK14" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AL14" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AM14" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Is runoff type appropriate for sheet-flow treatment</v>
-      </c>
-      <c r="AN14" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AO14" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
     </row>
@@ -4212,91 +4273,91 @@
         <v>0</v>
       </c>
       <c r="T15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="U15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="V15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
+      </c>
+      <c r="W15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
+      </c>
+      <c r="X15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Y15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="Z15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AA15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AB15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AC15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AD15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AE15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AF15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Does Facility potentially have space to install?</v>
+      </c>
+      <c r="AG15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AH15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AI15" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>N/A</v>
+      </c>
+      <c r="AJ15" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="U15" s="23" t="str">
+      <c r="AK15" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="V15" s="23" t="str">
+      <c r="AL15" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have medium or low risk of groundwater, which may necessitate dewatering?</v>
-      </c>
-      <c r="W15" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="AM15" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Does Facility have soils other than rock soils, which would increase cost of the BMP installation?</v>
-      </c>
-      <c r="X15" s="23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="AN15" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>N/A</v>
       </c>
-      <c r="Y15" s="23" t="str">
+      <c r="AO15" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="Z15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AA15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AB15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AC15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AE15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AF15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Does Facility potentially have space to install?</v>
-      </c>
-      <c r="AG15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AH15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AI15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N/A</v>
-      </c>
-      <c r="AJ15" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AK15" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AL15" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AM15" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AN15" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>N/A</v>
-      </c>
-      <c r="AO15" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
         <v>N/A</v>
       </c>
     </row>
@@ -4351,10 +4412,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4364,7 +4425,7 @@
     <col min="3" max="3" width="65.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4375,7 +4436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4386,56 +4447,68 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4446,26 +4519,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
+        <v>116</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4479,7 +4555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4495,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -4511,12 +4587,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5">
         <f>'[1]Table 2 - Selected BMP'!$I$10</f>
@@ -4527,12 +4603,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="5">
         <f>'[1]Table 2 - Selected BMP'!$O$10</f>
@@ -4543,12 +4619,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5">
         <f>'[1]Table 2 - Selected BMP'!$R$10</f>
@@ -4564,7 +4640,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5">
         <f>'[1]Table 2 - Selected BMP'!$U$10</f>
@@ -4612,7 +4688,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5">
         <f>'[1]Table 2 - Selected BMP'!$AD$10</f>
@@ -4628,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5">
         <f>'[1]Table 2 - Selected BMP'!$AG$10</f>
@@ -4644,7 +4720,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="5">
         <f>'[1]Table 2 - Selected BMP'!$AJ$10</f>
@@ -4673,7 +4749,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>15</v>
@@ -4684,7 +4760,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -4695,7 +4771,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -4706,7 +4782,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -4717,7 +4793,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -4728,7 +4804,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -4739,7 +4815,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -4750,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -4761,7 +4837,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -4772,7 +4848,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -4783,7 +4859,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -4794,7 +4870,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -4805,7 +4881,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -4816,7 +4892,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -4827,7 +4903,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -4838,10 +4914,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4849,7 +4925,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -4860,7 +4936,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -4871,7 +4947,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -4882,7 +4958,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -4893,7 +4969,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -4904,7 +4980,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -4915,7 +4991,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A414DEFE-044A-41C8-975D-D4C233519204}">
           <x14:formula1>
             <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
@@ -4926,13 +5002,7 @@
           <x14:formula1>
             <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C42:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54ABC716-40B6-4DE1-8C88-65A464AFDA22}">
-          <x14:formula1>
-            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C25:C41</xm:sqref>
+          <xm:sqref>C25:C43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4945,10 +5015,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4958,7 +5028,7 @@
     <col min="3" max="3" width="65.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4969,7 +5039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4980,59 +5050,65 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5043,26 +5119,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
+        <v>116</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5076,7 +5152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -5092,7 +5168,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -5108,12 +5184,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$11</f>
@@ -5124,12 +5200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$11</f>
@@ -5140,12 +5216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$11</f>
@@ -5161,7 +5237,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$11</f>
@@ -5209,7 +5285,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$11</f>
@@ -5225,7 +5301,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$11</f>
@@ -5241,7 +5317,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$11</f>
@@ -5270,7 +5346,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>15</v>
@@ -5281,7 +5357,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>15</v>
@@ -5292,7 +5368,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -5303,7 +5379,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -5314,7 +5390,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -5325,7 +5401,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -5336,7 +5412,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -5347,7 +5423,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -5358,7 +5434,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -5369,7 +5445,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -5380,7 +5456,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -5391,7 +5467,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -5402,7 +5478,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -5413,7 +5489,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -5424,7 +5500,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -5435,7 +5511,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -5446,10 +5522,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5457,7 +5533,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -5468,7 +5544,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -5479,7 +5555,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -5490,7 +5566,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -5501,7 +5577,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -5512,7 +5588,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C4DCEEE-E867-4521-9CD6-A4192ADD0E54}">
           <x14:formula1>
             <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
@@ -5523,13 +5599,7 @@
           <x14:formula1>
             <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C40:C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4FAB1B94-48F1-4FAA-8C32-5376D5B14AA0}">
-          <x14:formula1>
-            <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C25:C39</xm:sqref>
+          <xm:sqref>C25:C43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5545,7 +5615,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5587,13 +5657,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5601,13 +5671,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5615,10 +5685,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -5629,7 +5699,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -5640,7 +5710,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,13 +5718,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -5713,7 +5783,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5">
         <f>'[1]Table 2 - Selected BMP'!$I$12</f>
@@ -5729,7 +5799,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="18">
         <f>'[1]Table 2 - Selected BMP'!$O$12</f>
@@ -5745,7 +5815,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="18">
         <f>'[1]Table 2 - Selected BMP'!$R$12</f>
@@ -5761,7 +5831,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="18">
         <f>'[1]Table 2 - Selected BMP'!$U$12</f>
@@ -5809,7 +5879,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="18">
         <f>'[1]Table 2 - Selected BMP'!$AD$12</f>
@@ -5825,7 +5895,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="18">
         <f>'[1]Table 2 - Selected BMP'!$AG$12</f>
@@ -5841,7 +5911,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="18">
         <f>'[1]Table 2 - Selected BMP'!$AJ$12</f>
@@ -5870,7 +5940,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -5881,7 +5951,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -5892,10 +5962,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5903,10 +5973,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5914,7 +5984,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -5925,7 +5995,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -5936,7 +6006,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -5947,7 +6017,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -5958,7 +6028,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -5969,7 +6039,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -5980,7 +6050,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -5991,7 +6061,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -6002,7 +6072,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -6013,7 +6083,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -6024,7 +6094,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -6035,7 +6105,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -6046,7 +6116,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -6057,7 +6127,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -6068,7 +6138,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -6079,7 +6149,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -6090,10 +6160,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -6101,7 +6171,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -6136,10 +6206,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6149,7 +6219,7 @@
     <col min="3" max="3" width="66.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6160,7 +6230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6171,54 +6241,61 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6226,43 +6303,51 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
+        <v>116</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -6276,7 +6361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -6292,7 +6377,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -6308,12 +6393,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$13</f>
@@ -6324,12 +6409,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$13</f>
@@ -6340,12 +6425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$13</f>
@@ -6361,7 +6446,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$13</f>
@@ -6409,7 +6494,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$13</f>
@@ -6425,7 +6510,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$13</f>
@@ -6441,7 +6526,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$13</f>
@@ -6470,7 +6555,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -6481,7 +6566,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>18</v>
@@ -6492,7 +6577,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -6503,7 +6588,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -6514,7 +6599,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -6525,7 +6610,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>30</v>
@@ -6536,7 +6621,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -6547,7 +6632,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -6558,7 +6643,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -6569,7 +6654,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -6580,7 +6665,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -6591,7 +6676,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -6602,7 +6687,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -6613,10 +6698,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -6624,7 +6709,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -6635,7 +6720,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -6646,7 +6731,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -6657,7 +6742,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -6668,7 +6753,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -6679,10 +6764,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -6690,7 +6775,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -6701,7 +6786,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -6712,7 +6797,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4588B3B3-273F-42BC-BF4B-E1A6C41C1878}">
           <x14:formula1>
             <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
@@ -6739,7 +6824,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6768,7 +6853,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6781,13 +6866,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6795,13 +6880,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6809,10 +6894,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6823,7 +6908,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6837,7 +6922,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6845,13 +6930,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -6906,7 +6991,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -6920,7 +7005,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -6934,7 +7019,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -6948,7 +7033,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -6990,7 +7075,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -7004,7 +7089,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -7018,7 +7103,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -7045,7 +7130,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -7056,7 +7141,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -7067,10 +7152,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7078,10 +7163,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7089,7 +7174,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -7100,7 +7185,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -7111,7 +7196,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -7122,7 +7207,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -7133,7 +7218,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -7144,7 +7229,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -7155,7 +7240,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -7166,7 +7251,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -7177,7 +7262,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -7188,7 +7273,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -7199,7 +7284,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -7210,7 +7295,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -7221,7 +7306,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -7232,7 +7317,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -7243,7 +7328,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -7254,7 +7339,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -7265,7 +7350,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -7276,7 +7361,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -7312,7 +7397,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7327,27 +7412,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -7362,7 +7447,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -7372,7 +7457,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -7387,7 +7472,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -7397,32 +7482,32 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -7443,7 +7528,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7485,13 +7570,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7499,13 +7584,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7513,7 +7598,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -7527,7 +7612,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7538,7 +7623,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7546,14 +7631,14 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C9" s="15">
         <f>ROUND(3.14*(4^2),0)</f>
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7612,7 +7697,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$2</f>
@@ -7628,7 +7713,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$2</f>
@@ -7644,7 +7729,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$2</f>
@@ -7660,7 +7745,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$2</f>
@@ -7708,7 +7793,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$2</f>
@@ -7724,7 +7809,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$2</f>
@@ -7740,7 +7825,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$2</f>
@@ -7770,7 +7855,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -7782,7 +7867,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -7794,10 +7879,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D27" s="14"/>
     </row>
@@ -7806,10 +7891,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D28" s="14"/>
     </row>
@@ -7818,7 +7903,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -7830,7 +7915,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -7842,7 +7927,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -7854,7 +7939,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -7866,7 +7951,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -7878,7 +7963,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -7890,7 +7975,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -7902,7 +7987,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -7914,7 +7999,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -7926,7 +8011,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -7938,7 +8023,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -7950,7 +8035,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -7961,7 +8046,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -7972,7 +8057,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -7983,7 +8068,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -7994,7 +8079,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -8005,7 +8090,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -8016,7 +8101,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -8048,7 +8133,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8090,13 +8175,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8104,13 +8189,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8118,10 +8203,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8132,7 +8217,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8143,7 +8228,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8151,13 +8236,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8216,7 +8301,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$3</f>
@@ -8232,7 +8317,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$3</f>
@@ -8248,7 +8333,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$3</f>
@@ -8264,7 +8349,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$3</f>
@@ -8312,7 +8397,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$3</f>
@@ -8328,7 +8413,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$3</f>
@@ -8344,7 +8429,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$3</f>
@@ -8373,7 +8458,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -8385,7 +8470,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -8397,10 +8482,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D27" s="13"/>
     </row>
@@ -8409,10 +8494,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -8421,7 +8506,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -8433,7 +8518,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -8445,7 +8530,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -8457,7 +8542,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -8469,7 +8554,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -8481,7 +8566,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -8493,7 +8578,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -8505,7 +8590,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -8517,7 +8602,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -8529,7 +8614,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -8541,7 +8626,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -8553,7 +8638,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -8564,7 +8649,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -8575,7 +8660,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -8586,7 +8671,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -8597,7 +8682,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -8608,7 +8693,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -8619,7 +8704,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -8657,7 +8742,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8699,13 +8784,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8713,13 +8798,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8727,10 +8812,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8741,7 +8826,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8752,7 +8837,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8760,13 +8845,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8825,7 +8910,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$4</f>
@@ -8841,7 +8926,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$4</f>
@@ -8857,7 +8942,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$4</f>
@@ -8873,7 +8958,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$4</f>
@@ -8921,7 +9006,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$4</f>
@@ -8937,7 +9022,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$4</f>
@@ -8953,7 +9038,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$4</f>
@@ -8982,7 +9067,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -8994,7 +9079,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -9006,10 +9091,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D27" s="13"/>
     </row>
@@ -9018,10 +9103,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -9030,7 +9115,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -9042,7 +9127,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -9054,7 +9139,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -9066,7 +9151,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -9078,7 +9163,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -9090,7 +9175,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -9102,7 +9187,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -9114,7 +9199,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -9126,7 +9211,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -9138,7 +9223,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -9150,7 +9235,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -9162,7 +9247,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -9173,7 +9258,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -9184,7 +9269,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -9195,7 +9280,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -9206,7 +9291,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -9217,7 +9302,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -9228,7 +9313,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -9266,7 +9351,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9308,13 +9393,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9322,13 +9407,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9336,10 +9421,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9350,7 +9435,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9361,7 +9446,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -9369,13 +9454,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -9434,7 +9519,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$5</f>
@@ -9450,7 +9535,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$5</f>
@@ -9466,7 +9551,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$5</f>
@@ -9482,7 +9567,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$5</f>
@@ -9530,7 +9615,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$5</f>
@@ -9546,7 +9631,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$5</f>
@@ -9562,7 +9647,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$5</f>
@@ -9591,7 +9676,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -9602,7 +9687,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -9613,7 +9698,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -9624,7 +9709,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -9635,7 +9720,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -9646,7 +9731,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -9657,7 +9742,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -9668,7 +9753,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -9679,10 +9764,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9690,7 +9775,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>33</v>
@@ -9701,7 +9786,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -9712,7 +9797,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -9723,7 +9808,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -9734,7 +9819,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -9745,7 +9830,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>36</v>
@@ -9756,7 +9841,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -9767,7 +9852,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -9778,7 +9863,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -9789,7 +9874,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -9800,7 +9885,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -9811,7 +9896,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -9822,7 +9907,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -9857,10 +9942,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9868,9 +9953,10 @@
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.21875" customWidth="1"/>
     <col min="3" max="3" width="58.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -9881,7 +9967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9892,51 +9978,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9944,47 +10039,52 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9">
-        <f>25 * 40</f>
-        <v>1000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -9998,7 +10098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -10014,7 +10114,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -10030,12 +10130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$6</f>
@@ -10046,12 +10146,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$6</f>
@@ -10062,12 +10162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$6</f>
@@ -10083,7 +10183,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$6</f>
@@ -10131,7 +10231,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$6</f>
@@ -10147,7 +10247,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$6</f>
@@ -10163,7 +10263,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$6</f>
@@ -10192,7 +10292,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -10203,10 +10303,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -10214,7 +10314,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -10225,7 +10325,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -10236,10 +10336,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -10247,10 +10347,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10258,7 +10358,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -10269,7 +10369,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -10280,7 +10380,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -10291,7 +10391,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -10302,10 +10402,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10313,7 +10413,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -10324,7 +10424,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -10335,10 +10435,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -10346,7 +10446,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -10357,7 +10457,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -10368,7 +10468,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -10379,7 +10479,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -10390,10 +10490,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10401,10 +10501,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -10412,7 +10512,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -10423,7 +10523,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -10431,13 +10531,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{88F37BF9-D14F-4C44-9470-73D4CF43E033}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{88F37BF9-D14F-4C44-9470-73D4CF43E033}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7AC5EC-FA17-4230-8D70-93F56F3DFDA8}">
           <x14:formula1>
             <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
@@ -10464,7 +10564,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10506,10 +10606,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10517,10 +10617,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10528,7 +10628,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -10542,7 +10642,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10553,7 +10653,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10561,13 +10661,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10626,7 +10726,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$7</f>
@@ -10642,7 +10742,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$7</f>
@@ -10658,7 +10758,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$7</f>
@@ -10674,7 +10774,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$7</f>
@@ -10722,7 +10822,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$7</f>
@@ -10738,7 +10838,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$7</f>
@@ -10754,7 +10854,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$7</f>
@@ -10783,7 +10883,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -10794,7 +10894,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -10805,7 +10905,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -10816,7 +10916,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -10827,7 +10927,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -10838,7 +10938,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -10849,7 +10949,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>31</v>
@@ -10860,7 +10960,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -10871,7 +10971,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -10882,7 +10982,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -10893,7 +10993,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -10904,7 +11004,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -10915,7 +11015,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -10926,7 +11026,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -10937,7 +11037,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -10948,7 +11048,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -10959,7 +11059,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -10970,7 +11070,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -10981,7 +11081,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -10992,7 +11092,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -11003,7 +11103,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -11014,7 +11114,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -11025,7 +11125,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B7F37DE-2450-4571-9A8C-68ECE62922A0}">
           <x14:formula1>
             <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
@@ -11052,7 +11152,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11094,13 +11194,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -11111,13 +11211,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11125,10 +11225,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11139,7 +11239,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11150,10 +11250,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -11161,13 +11261,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -11226,7 +11326,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$8</f>
@@ -11242,7 +11342,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$8</f>
@@ -11258,7 +11358,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$8</f>
@@ -11274,7 +11374,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$8</f>
@@ -11322,7 +11422,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$8</f>
@@ -11338,7 +11438,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$8</f>
@@ -11354,7 +11454,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$8</f>
@@ -11383,7 +11483,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -11394,7 +11494,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -11405,10 +11505,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -11416,10 +11516,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -11427,7 +11527,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -11438,7 +11538,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -11449,7 +11549,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -11460,7 +11560,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -11471,7 +11571,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
@@ -11482,7 +11582,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
@@ -11493,7 +11593,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -11504,7 +11604,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -11515,7 +11615,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -11526,7 +11626,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -11537,7 +11637,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
@@ -11548,7 +11648,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -11559,7 +11659,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -11570,7 +11670,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -11581,7 +11681,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -11592,7 +11692,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -11603,7 +11703,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -11614,7 +11714,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>
@@ -11655,7 +11755,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11697,13 +11797,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -11711,13 +11811,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11725,10 +11825,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11739,7 +11839,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11750,10 +11850,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -11761,13 +11861,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -11826,7 +11926,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <f>'[1]Table 2 - Selected BMP'!$I$9</f>
@@ -11842,7 +11942,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <f>'[1]Table 2 - Selected BMP'!$O$9</f>
@@ -11858,7 +11958,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8">
         <f>'[1]Table 2 - Selected BMP'!$R$9</f>
@@ -11874,7 +11974,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <f>'[1]Table 2 - Selected BMP'!$U$9</f>
@@ -11922,7 +12022,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AD$9</f>
@@ -11938,7 +12038,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AG$9</f>
@@ -11954,7 +12054,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
         <f>'[1]Table 2 - Selected BMP'!$AJ$9</f>
@@ -11983,7 +12083,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -11994,7 +12094,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -12005,7 +12105,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -12016,7 +12116,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>15</v>
@@ -12027,7 +12127,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>15</v>
@@ -12038,7 +12138,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>15</v>
@@ -12049,7 +12149,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>15</v>
@@ -12060,7 +12160,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>15</v>
@@ -12071,10 +12171,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -12082,7 +12182,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>33</v>
@@ -12093,7 +12193,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -12104,7 +12204,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -12115,7 +12215,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>35</v>
@@ -12126,7 +12226,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>15</v>
@@ -12137,7 +12237,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>36</v>
@@ -12148,7 +12248,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -12159,7 +12259,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -12170,7 +12270,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>15</v>
@@ -12181,7 +12281,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -12192,7 +12292,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -12203,7 +12303,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -12214,7 +12314,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>15</v>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="D3CBFCB539476F3AB5D5C1344C094AEA2BA55794" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{CA8DFE3E-1D48-4EEC-9067-53D645840820}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="D3CBFCB539476F3AB5D5C1344C094AEA2BA55794" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DB4262D7-AC80-4C46-85F3-2A5DD404793F}"/>
   <bookViews>
     <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="171">
   <si>
     <t>Hydrodynamic Separation</t>
   </si>
@@ -508,9 +508,6 @@
     <t>JYH REVISED (SE: 1600*Estimated footprint / 43560)</t>
   </si>
   <si>
-    <t>1600*BMP_SIZE/43560</t>
-  </si>
-  <si>
     <t>(FT^2)</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>Acres</t>
   </si>
   <si>
-    <t>1600*BMP_SIZE / 43560</t>
-  </si>
-  <si>
     <t>JYH REVISED to convert to sf (SE: 500*Drainage_Area_Acres)</t>
   </si>
   <si>
@@ -548,6 +542,15 @@
   </si>
   <si>
     <t>var|Dmg_Pave</t>
+  </si>
+  <si>
+    <t>1600*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)/43560</t>
+  </si>
+  <si>
+    <t>JYH REVISED (SE: N/A)</t>
+  </si>
+  <si>
+    <t>1600*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name) / 43560</t>
   </si>
 </sst>
 </file>
@@ -2902,7 +2905,7 @@
       </c>
       <c r="G7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1600*BMP_SIZE/43560</v>
+        <v>1600*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)/43560</v>
       </c>
       <c r="H7" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3560,9 +3563,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>220*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
-      <c r="G11" s="23" t="str">
+      <c r="G11" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="H11" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3725,9 +3728,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>3*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
-      <c r="G12" s="23" t="str">
+      <c r="G12" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="H12" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4057,7 +4060,7 @@
       </c>
       <c r="G14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1600*BMP_SIZE / 43560</v>
+        <v>1600*BMP_Size(base_bmps~bmp_size_expression_id~bmp_name) / 43560</v>
       </c>
       <c r="H14" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4220,9 +4223,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>56*WQV + 37800</v>
       </c>
-      <c r="G15" s="23" t="str">
+      <c r="G15" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="H15" s="23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4415,7 +4418,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4488,10 +4491,10 @@
         <v>114</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4502,7 +4505,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
         <v>153</v>
@@ -4515,8 +4518,12 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4527,13 +4534,13 @@
         <v>116</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
         <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5018,7 +5025,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5091,7 +5098,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5102,7 +5109,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>154</v>
@@ -5115,8 +5122,12 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -5127,7 +5138,7 @@
         <v>116</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
         <v>115</v>
@@ -6209,7 +6220,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6274,11 +6285,11 @@
         <v>149</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6292,7 +6303,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6317,7 +6328,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -6333,13 +6344,13 @@
         <v>116</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
         <v>115</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6824,7 +6835,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6918,8 +6929,8 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8" s="24">
+        <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>44</v>
@@ -7528,7 +7539,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9945,7 +9956,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10053,7 +10064,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>147</v>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="86" documentId="D3CBFCB539476F3AB5D5C1344C094AEA2BA55794" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DB4262D7-AC80-4C46-85F3-2A5DD404793F}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Sheet" sheetId="18" r:id="rId1"/>
@@ -1958,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7E98C2-0016-4A4B-9FFE-BD3B62F27FF1}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9955,8 +9955,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="D3CBFCB539476F3AB5D5C1344C094AEA2BA55794" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DB4262D7-AC80-4C46-85F3-2A5DD404793F}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="D3CBFCB539476F3AB5D5C1344C094AEA2BA55794" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{DB4262D7-AC80-4C46-85F3-2A5DD404793F}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Sheet" sheetId="18" r:id="rId1"/>
@@ -9955,8 +9955,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10548,7 +10548,7 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7AC5EC-FA17-4230-8D70-93F56F3DFDA8}">
           <x14:formula1>
             <xm:f>'[BMP Lego Piece (2).xlsx]Dropdownlist'!#REF!</xm:f>
@@ -10574,8 +10574,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/BMP Lego Piece.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d34c976a67baf8c/Projects/Big Data School/BigDataAnalyst_ProjectDocumentation/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="86" documentId="D3CBFCB539476F3AB5D5C1344C094AEA2BA55794" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{DB4262D7-AC80-4C46-85F3-2A5DD404793F}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="1200" windowWidth="12984" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Sheet" sheetId="18" r:id="rId1"/>
@@ -1958,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7E98C2-0016-4A4B-9FFE-BD3B62F27FF1}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -10574,7 +10574,7 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
